--- a/0. document/2. 보고서/6차 보고서_마일스톤 상세.xlsx
+++ b/0. document/2. 보고서/6차 보고서_마일스톤 상세.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="21425"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B2C5AAA0-5661-4AE2-B795-6AF8CB6533A9}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8A5C8550-AF0D-493E-B6F7-22092EC56360}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="490" windowWidth="19420" windowHeight="12420" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="61" uniqueCount="43">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="97" uniqueCount="79">
   <si>
     <t>팀</t>
     <phoneticPr fontId="2" type="noConversion"/>
@@ -170,27 +170,171 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>프로토 타입 작성</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t xml:space="preserve">구글 지도 API </t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
     <t>내용</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
+    <t>친구 삭제</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>샘플 Database 작성</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>샘플 Restful API 작성</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>샘플 요구사항 작성</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>샘플 프로토 타입 작성</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>node.js vue.js 플러그인 설치</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>레이아웃 header, footer leftMenu, rightMenu</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
     <t>로그인</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
+    <t>구글맵 추가</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
     <t>회원가입</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t xml:space="preserve">친구, 그룹목록 </t>
+    <t>구글 맵 위치 검색</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">회원가입 유효성 검사 </t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">친구, 그룹 목록 </t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">친구 즐겨찾기 </t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>친구 위치 정보 조회</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>친구 정보 조회</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>내 프로필 조회</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>내 위치 조회</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>내 정보 수정</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>그룹 만들기</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>요구사항 Restful API 정제</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>코드 수정/유지보수</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>마일스톤 계획</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">작성일 </t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>현재 진행상황</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>추후 계획</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>사용자 검색</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>친구 요청 수락/거절</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>사용자 추가/해제</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>대기친구 &gt; 요청 온 친구 (수락/거절)</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>대기친구 &gt; 요청 한 친구 (취소)</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>대기그룹 &gt; 요청 온 그룹 (수락/거절)</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>대기친구 &gt; 요청 한 그룹 (취소)</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>그룹 push 조회</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>카테고리 push 조회</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>그룹 즐겨찾기</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>그룹 내 채팅 페이지</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>중간 보고서 작성</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">그룹 header, footer </t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>그룹 메뉴 - 카테고리</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>그룹메뉴 -채팅 참여자</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
@@ -371,7 +515,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="21">
+  <cellXfs count="24">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
@@ -385,24 +529,12 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1"/>
@@ -413,6 +545,21 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="31" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="20% - 강조색2" xfId="1" builtinId="34"/>
@@ -435,16 +582,16 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
-      <xdr:col>2</xdr:col>
-      <xdr:colOff>657410</xdr:colOff>
-      <xdr:row>13</xdr:row>
-      <xdr:rowOff>7471</xdr:rowOff>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>14940</xdr:colOff>
+      <xdr:row>12</xdr:row>
+      <xdr:rowOff>14941</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>3</xdr:col>
-      <xdr:colOff>3077882</xdr:colOff>
-      <xdr:row>22</xdr:row>
-      <xdr:rowOff>96205</xdr:rowOff>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>3092823</xdr:colOff>
+      <xdr:row>21</xdr:row>
+      <xdr:rowOff>103675</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -467,7 +614,7 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm flipH="1">
-          <a:off x="1972234" y="2906059"/>
+          <a:off x="8172822" y="2696882"/>
           <a:ext cx="3077883" cy="2038558"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -480,15 +627,15 @@
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
       <xdr:col>4</xdr:col>
-      <xdr:colOff>12187</xdr:colOff>
-      <xdr:row>12</xdr:row>
-      <xdr:rowOff>7472</xdr:rowOff>
+      <xdr:colOff>6584</xdr:colOff>
+      <xdr:row>13</xdr:row>
+      <xdr:rowOff>27082</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>4</xdr:col>
-      <xdr:colOff>3070412</xdr:colOff>
-      <xdr:row>27</xdr:row>
-      <xdr:rowOff>175781</xdr:rowOff>
+      <xdr:colOff>3062007</xdr:colOff>
+      <xdr:row>28</xdr:row>
+      <xdr:rowOff>189788</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -511,8 +658,8 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="5077246" y="2689413"/>
-          <a:ext cx="3058225" cy="3418015"/>
+          <a:off x="5071643" y="2925670"/>
+          <a:ext cx="3055423" cy="3412412"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -523,16 +670,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
-      <xdr:col>4</xdr:col>
-      <xdr:colOff>37354</xdr:colOff>
-      <xdr:row>29</xdr:row>
-      <xdr:rowOff>29883</xdr:rowOff>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>19612</xdr:colOff>
+      <xdr:row>23</xdr:row>
+      <xdr:rowOff>28949</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>4</xdr:col>
-      <xdr:colOff>3048000</xdr:colOff>
-      <xdr:row>50</xdr:row>
-      <xdr:rowOff>208913</xdr:rowOff>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>3027456</xdr:colOff>
+      <xdr:row>44</xdr:row>
+      <xdr:rowOff>207979</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -555,8 +702,8 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="5102413" y="6394824"/>
-          <a:ext cx="3010646" cy="4728618"/>
+          <a:off x="8177494" y="5094008"/>
+          <a:ext cx="3007844" cy="4728618"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -567,23 +714,109 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
-      <xdr:col>4</xdr:col>
-      <xdr:colOff>44824</xdr:colOff>
-      <xdr:row>52</xdr:row>
-      <xdr:rowOff>14941</xdr:rowOff>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>46692</xdr:colOff>
+      <xdr:row>11</xdr:row>
+      <xdr:rowOff>214780</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>4</xdr:col>
-      <xdr:colOff>3054551</xdr:colOff>
-      <xdr:row>73</xdr:row>
-      <xdr:rowOff>82176</xdr:rowOff>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>3069479</xdr:colOff>
+      <xdr:row>30</xdr:row>
+      <xdr:rowOff>159684</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="6" name="그림 5">
+        <xdr:cNvPr id="2" name="그림 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{7B49523F-BDA0-4AA5-8BA9-A36208925E38}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{8BB37CBC-5995-42C4-A3DE-BD01876905CF}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill rotWithShape="1">
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId4"/>
+        <a:srcRect r="12043"/>
+        <a:stretch/>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="11297398" y="2680074"/>
+          <a:ext cx="3022787" cy="4061198"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>29882</xdr:colOff>
+      <xdr:row>46</xdr:row>
+      <xdr:rowOff>14938</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>3055471</xdr:colOff>
+      <xdr:row>59</xdr:row>
+      <xdr:rowOff>93043</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="7" name="그림 6">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{8AF61661-3C39-4B4B-9652-010FF3173D8C}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill rotWithShape="1">
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId5"/>
+        <a:srcRect l="49865" t="13128" r="15988" b="37869"/>
+        <a:stretch/>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="8187764" y="10062879"/>
+          <a:ext cx="3025589" cy="2894517"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>22411</xdr:colOff>
+      <xdr:row>36</xdr:row>
+      <xdr:rowOff>29883</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>3040980</xdr:colOff>
+      <xdr:row>43</xdr:row>
+      <xdr:rowOff>201706</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="8" name="그림 7">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{56D2D82D-D957-4D7D-8BAF-74704454A7E1}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -592,15 +825,147 @@
         </xdr:cNvPicPr>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId4"/>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId6"/>
         <a:stretch>
           <a:fillRect/>
         </a:stretch>
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="5109883" y="11362765"/>
-          <a:ext cx="3009727" cy="4684058"/>
+          <a:off x="11273117" y="7911354"/>
+          <a:ext cx="3018569" cy="1688352"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>46</xdr:row>
+      <xdr:rowOff>1</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>1512</xdr:colOff>
+      <xdr:row>53</xdr:row>
+      <xdr:rowOff>1</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="9" name="그림 8">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A24F313C-EF56-4277-8855-372FDA88023B}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId7"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="11250706" y="10047942"/>
+          <a:ext cx="3094335" cy="1516530"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>56552</xdr:colOff>
+      <xdr:row>54</xdr:row>
+      <xdr:rowOff>22411</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>3050431</xdr:colOff>
+      <xdr:row>68</xdr:row>
+      <xdr:rowOff>171823</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="10" name="그림 9">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{9090DC70-012D-447B-9232-89A925E28786}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId8"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="11307258" y="11803529"/>
+          <a:ext cx="2993879" cy="3249706"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>12</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>3060035</xdr:colOff>
+      <xdr:row>25</xdr:row>
+      <xdr:rowOff>171823</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="11" name="그림 10">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{4C802BA5-254D-4250-967F-632EDBDCC2E9}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId9"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="14343529" y="2681941"/>
+          <a:ext cx="3060035" cy="2988235"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -877,12 +1242,13 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:O68"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A33" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="F37" sqref="F37"/>
+    <sheetView tabSelected="1" topLeftCell="J1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="L23" sqref="L23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="17" x14ac:dyDescent="0.45"/>
   <cols>
+    <col min="3" max="3" width="17.6640625" bestFit="1" customWidth="1"/>
     <col min="4" max="15" width="40.58203125" customWidth="1"/>
     <col min="17" max="17" width="40.58203125" customWidth="1"/>
   </cols>
@@ -912,13 +1278,26 @@
       </c>
       <c r="D3" s="1"/>
     </row>
-    <row r="4" spans="1:15" ht="17.5" thickBot="1" x14ac:dyDescent="0.5"/>
+    <row r="4" spans="1:15" ht="17.5" thickBot="1" x14ac:dyDescent="0.5">
+      <c r="B4" s="22" t="s">
+        <v>61</v>
+      </c>
+      <c r="C4" s="23">
+        <v>43565</v>
+      </c>
+    </row>
     <row r="5" spans="1:15" ht="21.5" thickBot="1" x14ac:dyDescent="0.6">
       <c r="A5" s="6" t="s">
         <v>14</v>
       </c>
       <c r="B5" s="7"/>
       <c r="C5" s="8"/>
+      <c r="H5" t="s">
+        <v>62</v>
+      </c>
+      <c r="I5" t="s">
+        <v>63</v>
+      </c>
     </row>
     <row r="6" spans="1:15" s="4" customFormat="1" x14ac:dyDescent="0.45">
       <c r="D6" s="3" t="s">
@@ -997,10 +1376,10 @@
       </c>
     </row>
     <row r="8" spans="1:15" x14ac:dyDescent="0.45">
-      <c r="A8" s="9" t="s">
+      <c r="A8" s="20" t="s">
         <v>32</v>
       </c>
-      <c r="B8" s="10"/>
+      <c r="B8" s="21"/>
       <c r="D8" s="5" t="s">
         <v>31</v>
       </c>
@@ -1013,18 +1392,16 @@
       <c r="G8" s="5" t="s">
         <v>31</v>
       </c>
-      <c r="H8" s="19" t="s">
+      <c r="H8" s="15" t="s">
         <v>36</v>
       </c>
     </row>
     <row r="9" spans="1:15" x14ac:dyDescent="0.45">
-      <c r="A9" s="9" t="s">
+      <c r="A9" s="20" t="s">
         <v>33</v>
       </c>
-      <c r="B9" s="10"/>
-      <c r="D9" s="5" t="s">
-        <v>31</v>
-      </c>
+      <c r="B9" s="21"/>
+      <c r="D9" s="5"/>
       <c r="E9" s="5" t="s">
         <v>31</v>
       </c>
@@ -1057,10 +1434,10 @@
       </c>
     </row>
     <row r="10" spans="1:15" x14ac:dyDescent="0.45">
-      <c r="A10" s="9" t="s">
+      <c r="A10" s="20" t="s">
         <v>34</v>
       </c>
-      <c r="B10" s="10"/>
+      <c r="B10" s="21"/>
       <c r="M10" s="5"/>
       <c r="N10" s="5" t="s">
         <v>31</v>
@@ -1070,196 +1447,299 @@
       </c>
     </row>
     <row r="11" spans="1:15" ht="17.5" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="A11" s="15" t="s">
+      <c r="A11" s="18" t="s">
         <v>35</v>
       </c>
-      <c r="B11" s="16"/>
-      <c r="C11" s="17"/>
-      <c r="D11" s="17"/>
-      <c r="E11" s="17"/>
-      <c r="F11" s="17"/>
-      <c r="G11" s="17"/>
-      <c r="H11" s="17"/>
-      <c r="I11" s="17"/>
-      <c r="J11" s="17"/>
-      <c r="K11" s="17"/>
-      <c r="L11" s="17"/>
-      <c r="M11" s="17"/>
-      <c r="N11" s="18" t="s">
-        <v>31</v>
-      </c>
-      <c r="O11" s="18" t="s">
+      <c r="B11" s="19"/>
+      <c r="C11" s="13"/>
+      <c r="D11" s="13"/>
+      <c r="E11" s="13"/>
+      <c r="F11" s="13"/>
+      <c r="G11" s="13"/>
+      <c r="H11" s="5" t="s">
+        <v>31</v>
+      </c>
+      <c r="I11" s="13"/>
+      <c r="J11" s="13"/>
+      <c r="K11" s="13"/>
+      <c r="L11" s="13"/>
+      <c r="M11" s="13"/>
+      <c r="N11" s="14" t="s">
+        <v>31</v>
+      </c>
+      <c r="O11" s="14" t="s">
         <v>31</v>
       </c>
     </row>
     <row r="12" spans="1:15" x14ac:dyDescent="0.45">
-      <c r="A12" s="9" t="s">
+      <c r="A12" s="20" t="s">
+        <v>37</v>
+      </c>
+      <c r="B12" s="21"/>
+      <c r="D12" t="s">
+        <v>42</v>
+      </c>
+      <c r="E12" t="s">
+        <v>44</v>
+      </c>
+      <c r="F12" t="s">
+        <v>46</v>
+      </c>
+      <c r="G12" t="s">
+        <v>50</v>
+      </c>
+      <c r="H12" t="s">
+        <v>57</v>
+      </c>
+      <c r="I12" t="s">
+        <v>64</v>
+      </c>
+      <c r="J12" t="s">
+        <v>71</v>
+      </c>
+      <c r="K12" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="13" spans="1:15" x14ac:dyDescent="0.45">
+      <c r="A13" s="11"/>
+      <c r="B13" s="12"/>
+      <c r="D13" t="s">
+        <v>41</v>
+      </c>
+      <c r="E13" t="s">
+        <v>45</v>
+      </c>
+      <c r="I13" t="s">
+        <v>66</v>
+      </c>
+      <c r="J13" t="s">
+        <v>72</v>
+      </c>
+      <c r="K13" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="14" spans="1:15" x14ac:dyDescent="0.45">
+      <c r="A14" s="11"/>
+      <c r="B14" s="12"/>
+      <c r="D14" t="s">
+        <v>40</v>
+      </c>
+      <c r="I14" t="s">
+        <v>65</v>
+      </c>
+      <c r="J14" t="s">
+        <v>73</v>
+      </c>
+      <c r="K14" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="15" spans="1:15" x14ac:dyDescent="0.45">
+      <c r="A15" s="11"/>
+      <c r="B15" s="12"/>
+      <c r="D15" t="s">
         <v>39</v>
       </c>
-      <c r="B12" s="10"/>
-      <c r="D12" t="s">
-        <v>37</v>
-      </c>
-      <c r="E12" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="13" spans="1:15" x14ac:dyDescent="0.45">
-      <c r="A13" s="13"/>
-      <c r="B13" s="14"/>
-      <c r="D13" t="s">
+      <c r="I15" t="s">
+        <v>67</v>
+      </c>
+      <c r="K15" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="16" spans="1:15" x14ac:dyDescent="0.45">
+      <c r="A16" s="11"/>
+      <c r="B16" s="12"/>
+      <c r="D16" t="s">
+        <v>43</v>
+      </c>
+      <c r="I16" t="s">
+        <v>68</v>
+      </c>
+      <c r="K16" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="17" spans="1:9" x14ac:dyDescent="0.45">
+      <c r="A17" s="11"/>
+      <c r="B17" s="12"/>
+      <c r="I17" s="16" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="18" spans="1:9" x14ac:dyDescent="0.45">
+      <c r="A18" s="11"/>
+      <c r="B18" s="12"/>
+      <c r="I18" s="16" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="19" spans="1:9" x14ac:dyDescent="0.45">
+      <c r="A19" s="11"/>
+      <c r="B19" s="12"/>
+    </row>
+    <row r="20" spans="1:9" x14ac:dyDescent="0.45">
+      <c r="A20" s="11"/>
+      <c r="B20" s="12"/>
+    </row>
+    <row r="21" spans="1:9" x14ac:dyDescent="0.45">
+      <c r="A21" s="11"/>
+      <c r="B21" s="12"/>
+    </row>
+    <row r="22" spans="1:9" x14ac:dyDescent="0.45">
+      <c r="A22" s="11"/>
+      <c r="B22" s="12"/>
+    </row>
+    <row r="23" spans="1:9" x14ac:dyDescent="0.45">
+      <c r="A23" s="11"/>
+      <c r="B23" s="12"/>
+      <c r="F23" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="24" spans="1:9" x14ac:dyDescent="0.45">
+      <c r="A24" s="11"/>
+      <c r="B24" s="12"/>
+    </row>
+    <row r="25" spans="1:9" x14ac:dyDescent="0.45">
+      <c r="A25" s="11"/>
+      <c r="B25" s="12"/>
+    </row>
+    <row r="26" spans="1:9" x14ac:dyDescent="0.45">
+      <c r="A26" s="11"/>
+      <c r="B26" s="12"/>
+    </row>
+    <row r="27" spans="1:9" x14ac:dyDescent="0.45">
+      <c r="A27" s="11"/>
+      <c r="B27" s="12"/>
+      <c r="H27" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="28" spans="1:9" x14ac:dyDescent="0.45">
+      <c r="A28" s="11"/>
+      <c r="B28" s="12"/>
+      <c r="H28" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="29" spans="1:9" x14ac:dyDescent="0.45">
+      <c r="A29" s="11"/>
+      <c r="B29" s="12"/>
+      <c r="H29" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="30" spans="1:9" x14ac:dyDescent="0.45">
+      <c r="A30" s="11"/>
+      <c r="B30" s="12"/>
+    </row>
+    <row r="31" spans="1:9" x14ac:dyDescent="0.45">
+      <c r="A31" s="11"/>
+      <c r="B31" s="12"/>
+    </row>
+    <row r="32" spans="1:9" x14ac:dyDescent="0.45">
+      <c r="A32" s="11"/>
+      <c r="B32" s="12"/>
+    </row>
+    <row r="33" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="A33" s="11"/>
+      <c r="B33" s="12"/>
+      <c r="G33" t="s">
         <v>38</v>
       </c>
     </row>
-    <row r="14" spans="1:15" x14ac:dyDescent="0.45">
-      <c r="A14" s="13"/>
-      <c r="B14" s="14"/>
-    </row>
-    <row r="15" spans="1:15" x14ac:dyDescent="0.45">
-      <c r="A15" s="13"/>
-      <c r="B15" s="14"/>
-    </row>
-    <row r="16" spans="1:15" x14ac:dyDescent="0.45">
-      <c r="A16" s="13"/>
-      <c r="B16" s="14"/>
-    </row>
-    <row r="17" spans="1:5" x14ac:dyDescent="0.45">
-      <c r="A17" s="13"/>
-      <c r="B17" s="14"/>
-    </row>
-    <row r="18" spans="1:5" x14ac:dyDescent="0.45">
-      <c r="A18" s="13"/>
-      <c r="B18" s="14"/>
-    </row>
-    <row r="19" spans="1:5" x14ac:dyDescent="0.45">
-      <c r="A19" s="13"/>
-      <c r="B19" s="14"/>
-    </row>
-    <row r="20" spans="1:5" x14ac:dyDescent="0.45">
-      <c r="A20" s="13"/>
-      <c r="B20" s="14"/>
-    </row>
-    <row r="21" spans="1:5" x14ac:dyDescent="0.45">
-      <c r="A21" s="13"/>
-      <c r="B21" s="14"/>
-    </row>
-    <row r="22" spans="1:5" x14ac:dyDescent="0.45">
-      <c r="A22" s="13"/>
-      <c r="B22" s="14"/>
-    </row>
-    <row r="23" spans="1:5" x14ac:dyDescent="0.45">
-      <c r="A23" s="13"/>
-      <c r="B23" s="14"/>
-    </row>
-    <row r="24" spans="1:5" x14ac:dyDescent="0.45">
-      <c r="A24" s="13"/>
-      <c r="B24" s="14"/>
-    </row>
-    <row r="25" spans="1:5" x14ac:dyDescent="0.45">
-      <c r="A25" s="13"/>
-      <c r="B25" s="14"/>
-    </row>
-    <row r="26" spans="1:5" x14ac:dyDescent="0.45">
-      <c r="A26" s="13"/>
-      <c r="B26" s="14"/>
-    </row>
-    <row r="27" spans="1:5" x14ac:dyDescent="0.45">
-      <c r="A27" s="13"/>
-      <c r="B27" s="14"/>
-    </row>
-    <row r="28" spans="1:5" x14ac:dyDescent="0.45">
-      <c r="A28" s="13"/>
-      <c r="B28" s="14"/>
-    </row>
-    <row r="29" spans="1:5" x14ac:dyDescent="0.45">
-      <c r="A29" s="13"/>
-      <c r="B29" s="14"/>
-      <c r="E29" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="30" spans="1:5" x14ac:dyDescent="0.45">
-      <c r="A30" s="13"/>
-      <c r="B30" s="14"/>
-    </row>
-    <row r="31" spans="1:5" x14ac:dyDescent="0.45">
-      <c r="A31" s="13"/>
-      <c r="B31" s="14"/>
-    </row>
-    <row r="32" spans="1:5" x14ac:dyDescent="0.45">
-      <c r="A32" s="13"/>
-      <c r="B32" s="14"/>
-    </row>
-    <row r="33" spans="1:2" x14ac:dyDescent="0.45">
-      <c r="A33" s="13"/>
-      <c r="B33" s="14"/>
-    </row>
-    <row r="34" spans="1:2" x14ac:dyDescent="0.45">
-      <c r="A34" s="13"/>
-      <c r="B34" s="14"/>
-    </row>
-    <row r="35" spans="1:2" x14ac:dyDescent="0.45">
-      <c r="A35" s="13"/>
-      <c r="B35" s="14"/>
-    </row>
-    <row r="36" spans="1:2" x14ac:dyDescent="0.45">
-      <c r="A36" s="13"/>
-      <c r="B36" s="14"/>
-    </row>
-    <row r="37" spans="1:2" x14ac:dyDescent="0.45">
-      <c r="A37" s="13"/>
-      <c r="B37" s="14"/>
-    </row>
-    <row r="38" spans="1:2" x14ac:dyDescent="0.45">
-      <c r="A38" s="13"/>
-      <c r="B38" s="14"/>
-    </row>
-    <row r="39" spans="1:2" x14ac:dyDescent="0.45">
-      <c r="A39" s="11"/>
-      <c r="B39" s="12"/>
-    </row>
-    <row r="42" spans="1:2" x14ac:dyDescent="0.45">
-      <c r="A42" s="20"/>
-      <c r="B42" s="20"/>
-    </row>
-    <row r="43" spans="1:2" x14ac:dyDescent="0.45">
-      <c r="A43" s="20"/>
-      <c r="B43" s="20"/>
-    </row>
-    <row r="44" spans="1:2" x14ac:dyDescent="0.45">
-      <c r="A44" s="20"/>
-      <c r="B44" s="20"/>
-    </row>
-    <row r="45" spans="1:2" x14ac:dyDescent="0.45">
-      <c r="A45" s="20"/>
-      <c r="B45" s="20"/>
-    </row>
-    <row r="46" spans="1:2" x14ac:dyDescent="0.45">
-      <c r="A46" s="20"/>
-      <c r="B46" s="20"/>
-    </row>
-    <row r="50" spans="1:5" x14ac:dyDescent="0.45">
-      <c r="A50" s="20"/>
-      <c r="B50" s="20"/>
-    </row>
-    <row r="51" spans="1:5" x14ac:dyDescent="0.45">
-      <c r="A51" s="20"/>
-      <c r="B51" s="20"/>
-    </row>
-    <row r="52" spans="1:5" x14ac:dyDescent="0.45">
-      <c r="A52" s="20"/>
-      <c r="B52" s="20"/>
-      <c r="E52" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="53" spans="1:5" x14ac:dyDescent="0.45">
-      <c r="A53" s="20"/>
-      <c r="B53" s="20"/>
-    </row>
-    <row r="54" spans="1:5" x14ac:dyDescent="0.45">
-      <c r="A54" s="20"/>
-      <c r="B54" s="20"/>
+    <row r="34" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="A34" s="11"/>
+      <c r="B34" s="12"/>
+      <c r="G34" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="35" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="A35" s="11"/>
+      <c r="B35" s="12"/>
+      <c r="G35" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="36" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="A36" s="11"/>
+      <c r="B36" s="12"/>
+      <c r="G36" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="37" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="A37" s="11"/>
+      <c r="B37" s="12"/>
+    </row>
+    <row r="38" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="A38" s="11"/>
+      <c r="B38" s="12"/>
+    </row>
+    <row r="39" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="A39" s="9"/>
+      <c r="B39" s="10"/>
+    </row>
+    <row r="42" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="A42" s="17"/>
+      <c r="B42" s="17"/>
+    </row>
+    <row r="43" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="A43" s="17"/>
+      <c r="B43" s="17"/>
+    </row>
+    <row r="44" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="A44" s="17"/>
+      <c r="B44" s="17"/>
+    </row>
+    <row r="45" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="A45" s="17"/>
+      <c r="B45" s="17"/>
+      <c r="G45" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="46" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="A46" s="17"/>
+      <c r="B46" s="17"/>
+      <c r="F46" t="s">
+        <v>48</v>
+      </c>
+      <c r="G46" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="50" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="A50" s="17"/>
+      <c r="B50" s="17"/>
+    </row>
+    <row r="51" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="A51" s="17"/>
+      <c r="B51" s="17"/>
+    </row>
+    <row r="52" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="A52" s="17"/>
+      <c r="B52" s="17"/>
+    </row>
+    <row r="53" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="A53" s="17"/>
+      <c r="B53" s="17"/>
+    </row>
+    <row r="54" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="A54" s="17"/>
+      <c r="B54" s="17"/>
+      <c r="G54" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="61" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="F61" t="s">
+        <v>49</v>
+      </c>
     </row>
     <row r="67" spans="4:4" ht="21.5" thickBot="1" x14ac:dyDescent="0.6">
       <c r="D67" s="2"/>
@@ -1267,11 +1747,6 @@
     <row r="68" spans="4:4" ht="17.5" thickTop="1" x14ac:dyDescent="0.45"/>
   </sheetData>
   <mergeCells count="15">
-    <mergeCell ref="A54:B54"/>
-    <mergeCell ref="A52:B52"/>
-    <mergeCell ref="A50:B50"/>
-    <mergeCell ref="A53:B53"/>
-    <mergeCell ref="A45:B45"/>
     <mergeCell ref="A11:B11"/>
     <mergeCell ref="A12:B12"/>
     <mergeCell ref="A46:B46"/>
@@ -1279,9 +1754,14 @@
     <mergeCell ref="A42:B42"/>
     <mergeCell ref="A9:B9"/>
     <mergeCell ref="A43:B43"/>
-    <mergeCell ref="A51:B51"/>
     <mergeCell ref="A10:B10"/>
     <mergeCell ref="A44:B44"/>
+    <mergeCell ref="A54:B54"/>
+    <mergeCell ref="A52:B52"/>
+    <mergeCell ref="A50:B50"/>
+    <mergeCell ref="A53:B53"/>
+    <mergeCell ref="A45:B45"/>
+    <mergeCell ref="A51:B51"/>
   </mergeCells>
   <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/0. document/2. 보고서/6차 보고서_마일스톤 상세.xlsx
+++ b/0. document/2. 보고서/6차 보고서_마일스톤 상세.xlsx
@@ -1,11 +1,11 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="21425"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="20730"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8A5C8550-AF0D-493E-B6F7-22092EC56360}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EA9A67EB-1616-48EB-8E6E-A7DA323518FC}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="490" windowWidth="19420" windowHeight="12420" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-105" yWindow="1095" windowWidth="19425" windowHeight="12420" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="97" uniqueCount="79">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="112" uniqueCount="92">
   <si>
     <t>팀</t>
     <phoneticPr fontId="2" type="noConversion"/>
@@ -335,6 +335,58 @@
   </si>
   <si>
     <t>그룹메뉴 -채팅 참여자</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>전문가 미팅</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>채팅 socket.io 구현</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>그룹메뉴-필터</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>그룹 환경설정 - 매니저</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>그룹 환경설정 - 참여자</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>환경설정 - 로그아웃</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve"> 지도상에 검색된 그룹 을 표시</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve"> rightMenu: 지도상 내에 혹은 검색된 그룹리스트</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">그룹의 상세, 참여 요청 </t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>코드 유지보수</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>테스트</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>진행사항 점검 및 Ver1.5 계획</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>최종 보고서 작성</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
@@ -342,7 +394,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="7" x14ac:knownFonts="1">
+  <fonts count="8" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -392,6 +444,13 @@
     <font>
       <sz val="11"/>
       <color theme="3"/>
+      <name val="맑은 고딕"/>
+      <family val="3"/>
+      <charset val="129"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <name val="맑은 고딕"/>
       <family val="3"/>
       <charset val="129"/>
@@ -515,7 +574,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="24">
+  <cellXfs count="28">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
@@ -546,6 +605,8 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="31" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -558,8 +619,16 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="31" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="20% - 강조색2" xfId="1" builtinId="34"/>
@@ -588,8 +657,8 @@
       <xdr:rowOff>14941</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>5</xdr:col>
-      <xdr:colOff>3092823</xdr:colOff>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
       <xdr:row>21</xdr:row>
       <xdr:rowOff>103675</xdr:rowOff>
     </xdr:to>
@@ -1242,18 +1311,18 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:O68"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="J1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="L23" sqref="L23"/>
+    <sheetView tabSelected="1" topLeftCell="I1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="N31" sqref="N31"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="17" x14ac:dyDescent="0.45"/>
+  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="3" max="3" width="17.6640625" bestFit="1" customWidth="1"/>
-    <col min="4" max="15" width="40.58203125" customWidth="1"/>
-    <col min="17" max="17" width="40.58203125" customWidth="1"/>
+    <col min="3" max="3" width="17.625" bestFit="1" customWidth="1"/>
+    <col min="4" max="15" width="40.625" customWidth="1"/>
+    <col min="17" max="17" width="40.625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:15" x14ac:dyDescent="0.45">
+    <row r="1" spans="1:15" x14ac:dyDescent="0.3">
       <c r="B1" t="s">
         <v>0</v>
       </c>
@@ -1261,7 +1330,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="2" spans="1:15" x14ac:dyDescent="0.45">
+    <row r="2" spans="1:15" x14ac:dyDescent="0.3">
       <c r="B2" t="s">
         <v>2</v>
       </c>
@@ -1269,7 +1338,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="3" spans="1:15" ht="17.5" thickBot="1" x14ac:dyDescent="0.5">
+    <row r="3" spans="1:15" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B3" s="1" t="s">
         <v>4</v>
       </c>
@@ -1278,15 +1347,15 @@
       </c>
       <c r="D3" s="1"/>
     </row>
-    <row r="4" spans="1:15" ht="17.5" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="B4" s="22" t="s">
+    <row r="4" spans="1:15" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B4" s="18" t="s">
         <v>61</v>
       </c>
-      <c r="C4" s="23">
+      <c r="C4" s="19">
         <v>43565</v>
       </c>
     </row>
-    <row r="5" spans="1:15" ht="21.5" thickBot="1" x14ac:dyDescent="0.6">
+    <row r="5" spans="1:15" ht="21" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A5" s="6" t="s">
         <v>14</v>
       </c>
@@ -1299,7 +1368,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="6" spans="1:15" s="4" customFormat="1" x14ac:dyDescent="0.45">
+    <row r="6" spans="1:15" s="4" customFormat="1" x14ac:dyDescent="0.3">
       <c r="D6" s="3" t="s">
         <v>6</v>
       </c>
@@ -1337,7 +1406,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="7" spans="1:15" s="4" customFormat="1" x14ac:dyDescent="0.45">
+    <row r="7" spans="1:15" s="4" customFormat="1" x14ac:dyDescent="0.3">
       <c r="D7" s="3" t="s">
         <v>10</v>
       </c>
@@ -1375,11 +1444,11 @@
         <v>30</v>
       </c>
     </row>
-    <row r="8" spans="1:15" x14ac:dyDescent="0.45">
-      <c r="A8" s="20" t="s">
+    <row r="8" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A8" s="22" t="s">
         <v>32</v>
       </c>
-      <c r="B8" s="21"/>
+      <c r="B8" s="23"/>
       <c r="D8" s="5" t="s">
         <v>31</v>
       </c>
@@ -1396,11 +1465,11 @@
         <v>36</v>
       </c>
     </row>
-    <row r="9" spans="1:15" x14ac:dyDescent="0.45">
-      <c r="A9" s="20" t="s">
+    <row r="9" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A9" s="22" t="s">
         <v>33</v>
       </c>
-      <c r="B9" s="21"/>
+      <c r="B9" s="23"/>
       <c r="D9" s="5"/>
       <c r="E9" s="5" t="s">
         <v>31</v>
@@ -1433,12 +1502,14 @@
         <v>31</v>
       </c>
     </row>
-    <row r="10" spans="1:15" x14ac:dyDescent="0.45">
-      <c r="A10" s="20" t="s">
+    <row r="10" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A10" s="22" t="s">
         <v>34</v>
       </c>
-      <c r="B10" s="21"/>
-      <c r="M10" s="5"/>
+      <c r="B10" s="23"/>
+      <c r="M10" s="5" t="s">
+        <v>31</v>
+      </c>
       <c r="N10" s="5" t="s">
         <v>31</v>
       </c>
@@ -1446,11 +1517,11 @@
         <v>31</v>
       </c>
     </row>
-    <row r="11" spans="1:15" ht="17.5" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="A11" s="18" t="s">
+    <row r="11" spans="1:15" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A11" s="20" t="s">
         <v>35</v>
       </c>
-      <c r="B11" s="19"/>
+      <c r="B11" s="21"/>
       <c r="C11" s="13"/>
       <c r="D11" s="13"/>
       <c r="E11" s="13"/>
@@ -1463,7 +1534,9 @@
       <c r="J11" s="13"/>
       <c r="K11" s="13"/>
       <c r="L11" s="13"/>
-      <c r="M11" s="13"/>
+      <c r="M11" s="14" t="s">
+        <v>31</v>
+      </c>
       <c r="N11" s="14" t="s">
         <v>31</v>
       </c>
@@ -1471,11 +1544,11 @@
         <v>31</v>
       </c>
     </row>
-    <row r="12" spans="1:15" x14ac:dyDescent="0.45">
-      <c r="A12" s="20" t="s">
+    <row r="12" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A12" s="22" t="s">
         <v>37</v>
       </c>
-      <c r="B12" s="21"/>
+      <c r="B12" s="23"/>
       <c r="D12" t="s">
         <v>42</v>
       </c>
@@ -1500,8 +1573,17 @@
       <c r="K12" t="s">
         <v>74</v>
       </c>
-    </row>
-    <row r="13" spans="1:15" x14ac:dyDescent="0.45">
+      <c r="L12" t="s">
+        <v>82</v>
+      </c>
+      <c r="M12" s="26" t="s">
+        <v>88</v>
+      </c>
+      <c r="N12" s="25" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="13" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A13" s="11"/>
       <c r="B13" s="12"/>
       <c r="D13" t="s">
@@ -1519,8 +1601,14 @@
       <c r="K13" t="s">
         <v>75</v>
       </c>
-    </row>
-    <row r="14" spans="1:15" x14ac:dyDescent="0.45">
+      <c r="L13" s="17" t="s">
+        <v>83</v>
+      </c>
+      <c r="M13" s="26" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="14" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A14" s="11"/>
       <c r="B14" s="12"/>
       <c r="D14" t="s">
@@ -1535,8 +1623,14 @@
       <c r="K14" t="s">
         <v>76</v>
       </c>
-    </row>
-    <row r="15" spans="1:15" x14ac:dyDescent="0.45">
+      <c r="L14" t="s">
+        <v>84</v>
+      </c>
+      <c r="M14" s="26" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="15" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A15" s="11"/>
       <c r="B15" s="12"/>
       <c r="D15" t="s">
@@ -1548,8 +1642,12 @@
       <c r="K15" t="s">
         <v>77</v>
       </c>
-    </row>
-    <row r="16" spans="1:15" x14ac:dyDescent="0.45">
+      <c r="L15" s="17" t="s">
+        <v>85</v>
+      </c>
+      <c r="M15" s="27"/>
+    </row>
+    <row r="16" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A16" s="11"/>
       <c r="B16" s="12"/>
       <c r="D16" t="s">
@@ -1561,151 +1659,166 @@
       <c r="K16" t="s">
         <v>78</v>
       </c>
-    </row>
-    <row r="17" spans="1:9" x14ac:dyDescent="0.45">
+      <c r="L16" s="17" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="17" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A17" s="11"/>
       <c r="B17" s="12"/>
       <c r="I17" s="16" t="s">
         <v>69</v>
       </c>
-    </row>
-    <row r="18" spans="1:9" x14ac:dyDescent="0.45">
+      <c r="K17" t="s">
+        <v>79</v>
+      </c>
+      <c r="L17" s="17" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="18" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A18" s="11"/>
       <c r="B18" s="12"/>
       <c r="I18" s="16" t="s">
         <v>70</v>
       </c>
-    </row>
-    <row r="19" spans="1:9" x14ac:dyDescent="0.45">
+      <c r="K18" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="19" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A19" s="11"/>
       <c r="B19" s="12"/>
-    </row>
-    <row r="20" spans="1:9" x14ac:dyDescent="0.45">
+      <c r="K19" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="20" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A20" s="11"/>
       <c r="B20" s="12"/>
     </row>
-    <row r="21" spans="1:9" x14ac:dyDescent="0.45">
+    <row r="21" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A21" s="11"/>
       <c r="B21" s="12"/>
     </row>
-    <row r="22" spans="1:9" x14ac:dyDescent="0.45">
+    <row r="22" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A22" s="11"/>
       <c r="B22" s="12"/>
     </row>
-    <row r="23" spans="1:9" x14ac:dyDescent="0.45">
+    <row r="23" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A23" s="11"/>
       <c r="B23" s="12"/>
       <c r="F23" t="s">
         <v>47</v>
       </c>
     </row>
-    <row r="24" spans="1:9" x14ac:dyDescent="0.45">
+    <row r="24" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A24" s="11"/>
       <c r="B24" s="12"/>
     </row>
-    <row r="25" spans="1:9" x14ac:dyDescent="0.45">
+    <row r="25" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A25" s="11"/>
       <c r="B25" s="12"/>
     </row>
-    <row r="26" spans="1:9" x14ac:dyDescent="0.45">
+    <row r="26" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A26" s="11"/>
       <c r="B26" s="12"/>
     </row>
-    <row r="27" spans="1:9" x14ac:dyDescent="0.45">
+    <row r="27" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A27" s="11"/>
       <c r="B27" s="12"/>
       <c r="H27" t="s">
         <v>58</v>
       </c>
     </row>
-    <row r="28" spans="1:9" x14ac:dyDescent="0.45">
+    <row r="28" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A28" s="11"/>
       <c r="B28" s="12"/>
       <c r="H28" t="s">
         <v>59</v>
       </c>
     </row>
-    <row r="29" spans="1:9" x14ac:dyDescent="0.45">
+    <row r="29" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A29" s="11"/>
       <c r="B29" s="12"/>
       <c r="H29" t="s">
         <v>60</v>
       </c>
     </row>
-    <row r="30" spans="1:9" x14ac:dyDescent="0.45">
+    <row r="30" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A30" s="11"/>
       <c r="B30" s="12"/>
     </row>
-    <row r="31" spans="1:9" x14ac:dyDescent="0.45">
+    <row r="31" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A31" s="11"/>
       <c r="B31" s="12"/>
     </row>
-    <row r="32" spans="1:9" x14ac:dyDescent="0.45">
+    <row r="32" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A32" s="11"/>
       <c r="B32" s="12"/>
     </row>
-    <row r="33" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="33" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A33" s="11"/>
       <c r="B33" s="12"/>
       <c r="G33" t="s">
         <v>38</v>
       </c>
     </row>
-    <row r="34" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="34" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A34" s="11"/>
       <c r="B34" s="12"/>
       <c r="G34" t="s">
         <v>51</v>
       </c>
     </row>
-    <row r="35" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="35" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A35" s="11"/>
       <c r="B35" s="12"/>
       <c r="G35" t="s">
         <v>52</v>
       </c>
     </row>
-    <row r="36" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="36" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A36" s="11"/>
       <c r="B36" s="12"/>
       <c r="G36" t="s">
         <v>53</v>
       </c>
     </row>
-    <row r="37" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="37" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A37" s="11"/>
       <c r="B37" s="12"/>
     </row>
-    <row r="38" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="38" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A38" s="11"/>
       <c r="B38" s="12"/>
     </row>
-    <row r="39" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="39" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A39" s="9"/>
       <c r="B39" s="10"/>
     </row>
-    <row r="42" spans="1:7" x14ac:dyDescent="0.45">
-      <c r="A42" s="17"/>
-      <c r="B42" s="17"/>
-    </row>
-    <row r="43" spans="1:7" x14ac:dyDescent="0.45">
-      <c r="A43" s="17"/>
-      <c r="B43" s="17"/>
-    </row>
-    <row r="44" spans="1:7" x14ac:dyDescent="0.45">
-      <c r="A44" s="17"/>
-      <c r="B44" s="17"/>
-    </row>
-    <row r="45" spans="1:7" x14ac:dyDescent="0.45">
-      <c r="A45" s="17"/>
-      <c r="B45" s="17"/>
+    <row r="42" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A42" s="24"/>
+      <c r="B42" s="24"/>
+    </row>
+    <row r="43" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A43" s="24"/>
+      <c r="B43" s="24"/>
+    </row>
+    <row r="44" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A44" s="24"/>
+      <c r="B44" s="24"/>
+    </row>
+    <row r="45" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A45" s="24"/>
+      <c r="B45" s="24"/>
       <c r="G45" t="s">
         <v>54</v>
       </c>
     </row>
-    <row r="46" spans="1:7" x14ac:dyDescent="0.45">
-      <c r="A46" s="17"/>
-      <c r="B46" s="17"/>
+    <row r="46" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A46" s="24"/>
+      <c r="B46" s="24"/>
       <c r="F46" t="s">
         <v>48</v>
       </c>
@@ -1713,40 +1826,46 @@
         <v>55</v>
       </c>
     </row>
-    <row r="50" spans="1:7" x14ac:dyDescent="0.45">
-      <c r="A50" s="17"/>
-      <c r="B50" s="17"/>
-    </row>
-    <row r="51" spans="1:7" x14ac:dyDescent="0.45">
-      <c r="A51" s="17"/>
-      <c r="B51" s="17"/>
-    </row>
-    <row r="52" spans="1:7" x14ac:dyDescent="0.45">
-      <c r="A52" s="17"/>
-      <c r="B52" s="17"/>
-    </row>
-    <row r="53" spans="1:7" x14ac:dyDescent="0.45">
-      <c r="A53" s="17"/>
-      <c r="B53" s="17"/>
-    </row>
-    <row r="54" spans="1:7" x14ac:dyDescent="0.45">
-      <c r="A54" s="17"/>
-      <c r="B54" s="17"/>
+    <row r="50" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A50" s="24"/>
+      <c r="B50" s="24"/>
+    </row>
+    <row r="51" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A51" s="24"/>
+      <c r="B51" s="24"/>
+    </row>
+    <row r="52" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A52" s="24"/>
+      <c r="B52" s="24"/>
+    </row>
+    <row r="53" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A53" s="24"/>
+      <c r="B53" s="24"/>
+    </row>
+    <row r="54" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A54" s="24"/>
+      <c r="B54" s="24"/>
       <c r="G54" t="s">
         <v>56</v>
       </c>
     </row>
-    <row r="61" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="61" spans="1:7" x14ac:dyDescent="0.3">
       <c r="F61" t="s">
         <v>49</v>
       </c>
     </row>
-    <row r="67" spans="4:4" ht="21.5" thickBot="1" x14ac:dyDescent="0.6">
+    <row r="67" spans="4:4" ht="21" thickBot="1" x14ac:dyDescent="0.4">
       <c r="D67" s="2"/>
     </row>
-    <row r="68" spans="4:4" ht="17.5" thickTop="1" x14ac:dyDescent="0.45"/>
+    <row r="68" spans="4:4" ht="17.25" thickTop="1" x14ac:dyDescent="0.3"/>
   </sheetData>
   <mergeCells count="15">
+    <mergeCell ref="A54:B54"/>
+    <mergeCell ref="A52:B52"/>
+    <mergeCell ref="A50:B50"/>
+    <mergeCell ref="A53:B53"/>
+    <mergeCell ref="A45:B45"/>
+    <mergeCell ref="A51:B51"/>
     <mergeCell ref="A11:B11"/>
     <mergeCell ref="A12:B12"/>
     <mergeCell ref="A46:B46"/>
@@ -1756,12 +1875,6 @@
     <mergeCell ref="A43:B43"/>
     <mergeCell ref="A10:B10"/>
     <mergeCell ref="A44:B44"/>
-    <mergeCell ref="A54:B54"/>
-    <mergeCell ref="A52:B52"/>
-    <mergeCell ref="A50:B50"/>
-    <mergeCell ref="A53:B53"/>
-    <mergeCell ref="A45:B45"/>
-    <mergeCell ref="A51:B51"/>
   </mergeCells>
   <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/0. document/2. 보고서/6차 보고서_마일스톤 상세.xlsx
+++ b/0. document/2. 보고서/6차 보고서_마일스톤 상세.xlsx
@@ -3,9 +3,9 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="20730"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EA9A67EB-1616-48EB-8E6E-A7DA323518FC}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{88102ED7-9745-43C8-B796-BB930407905F}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-105" yWindow="1095" windowWidth="19425" windowHeight="12420" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-105" yWindow="1695" windowWidth="19425" windowHeight="12420" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -607,6 +607,16 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="31" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -618,16 +628,6 @@
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -1445,10 +1445,10 @@
       </c>
     </row>
     <row r="8" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A8" s="22" t="s">
+      <c r="A8" s="26" t="s">
         <v>32</v>
       </c>
-      <c r="B8" s="23"/>
+      <c r="B8" s="27"/>
       <c r="D8" s="5" t="s">
         <v>31</v>
       </c>
@@ -1466,10 +1466,10 @@
       </c>
     </row>
     <row r="9" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A9" s="22" t="s">
+      <c r="A9" s="26" t="s">
         <v>33</v>
       </c>
-      <c r="B9" s="23"/>
+      <c r="B9" s="27"/>
       <c r="D9" s="5"/>
       <c r="E9" s="5" t="s">
         <v>31</v>
@@ -1503,10 +1503,10 @@
       </c>
     </row>
     <row r="10" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A10" s="22" t="s">
+      <c r="A10" s="26" t="s">
         <v>34</v>
       </c>
-      <c r="B10" s="23"/>
+      <c r="B10" s="27"/>
       <c r="M10" s="5" t="s">
         <v>31</v>
       </c>
@@ -1518,10 +1518,10 @@
       </c>
     </row>
     <row r="11" spans="1:15" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A11" s="20" t="s">
+      <c r="A11" s="24" t="s">
         <v>35</v>
       </c>
-      <c r="B11" s="21"/>
+      <c r="B11" s="25"/>
       <c r="C11" s="13"/>
       <c r="D11" s="13"/>
       <c r="E11" s="13"/>
@@ -1545,10 +1545,10 @@
       </c>
     </row>
     <row r="12" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A12" s="22" t="s">
+      <c r="A12" s="26" t="s">
         <v>37</v>
       </c>
-      <c r="B12" s="23"/>
+      <c r="B12" s="27"/>
       <c r="D12" t="s">
         <v>42</v>
       </c>
@@ -1576,10 +1576,10 @@
       <c r="L12" t="s">
         <v>82</v>
       </c>
-      <c r="M12" s="26" t="s">
+      <c r="M12" s="21" t="s">
         <v>88</v>
       </c>
-      <c r="N12" s="25" t="s">
+      <c r="N12" s="20" t="s">
         <v>91</v>
       </c>
     </row>
@@ -1604,7 +1604,7 @@
       <c r="L13" s="17" t="s">
         <v>83</v>
       </c>
-      <c r="M13" s="26" t="s">
+      <c r="M13" s="21" t="s">
         <v>89</v>
       </c>
     </row>
@@ -1626,7 +1626,7 @@
       <c r="L14" t="s">
         <v>84</v>
       </c>
-      <c r="M14" s="26" t="s">
+      <c r="M14" s="21" t="s">
         <v>90</v>
       </c>
     </row>
@@ -1645,7 +1645,7 @@
       <c r="L15" s="17" t="s">
         <v>85</v>
       </c>
-      <c r="M15" s="27"/>
+      <c r="M15" s="22"/>
     </row>
     <row r="16" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A16" s="11"/>
@@ -1798,27 +1798,27 @@
       <c r="B39" s="10"/>
     </row>
     <row r="42" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A42" s="24"/>
-      <c r="B42" s="24"/>
+      <c r="A42" s="23"/>
+      <c r="B42" s="23"/>
     </row>
     <row r="43" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A43" s="24"/>
-      <c r="B43" s="24"/>
+      <c r="A43" s="23"/>
+      <c r="B43" s="23"/>
     </row>
     <row r="44" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A44" s="24"/>
-      <c r="B44" s="24"/>
+      <c r="A44" s="23"/>
+      <c r="B44" s="23"/>
     </row>
     <row r="45" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A45" s="24"/>
-      <c r="B45" s="24"/>
+      <c r="A45" s="23"/>
+      <c r="B45" s="23"/>
       <c r="G45" t="s">
         <v>54</v>
       </c>
     </row>
     <row r="46" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A46" s="24"/>
-      <c r="B46" s="24"/>
+      <c r="A46" s="23"/>
+      <c r="B46" s="23"/>
       <c r="F46" t="s">
         <v>48</v>
       </c>
@@ -1827,24 +1827,24 @@
       </c>
     </row>
     <row r="50" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A50" s="24"/>
-      <c r="B50" s="24"/>
+      <c r="A50" s="23"/>
+      <c r="B50" s="23"/>
     </row>
     <row r="51" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A51" s="24"/>
-      <c r="B51" s="24"/>
+      <c r="A51" s="23"/>
+      <c r="B51" s="23"/>
     </row>
     <row r="52" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A52" s="24"/>
-      <c r="B52" s="24"/>
+      <c r="A52" s="23"/>
+      <c r="B52" s="23"/>
     </row>
     <row r="53" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A53" s="24"/>
-      <c r="B53" s="24"/>
+      <c r="A53" s="23"/>
+      <c r="B53" s="23"/>
     </row>
     <row r="54" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A54" s="24"/>
-      <c r="B54" s="24"/>
+      <c r="A54" s="23"/>
+      <c r="B54" s="23"/>
       <c r="G54" t="s">
         <v>56</v>
       </c>
@@ -1860,12 +1860,6 @@
     <row r="68" spans="4:4" ht="17.25" thickTop="1" x14ac:dyDescent="0.3"/>
   </sheetData>
   <mergeCells count="15">
-    <mergeCell ref="A54:B54"/>
-    <mergeCell ref="A52:B52"/>
-    <mergeCell ref="A50:B50"/>
-    <mergeCell ref="A53:B53"/>
-    <mergeCell ref="A45:B45"/>
-    <mergeCell ref="A51:B51"/>
     <mergeCell ref="A11:B11"/>
     <mergeCell ref="A12:B12"/>
     <mergeCell ref="A46:B46"/>
@@ -1875,6 +1869,12 @@
     <mergeCell ref="A43:B43"/>
     <mergeCell ref="A10:B10"/>
     <mergeCell ref="A44:B44"/>
+    <mergeCell ref="A54:B54"/>
+    <mergeCell ref="A52:B52"/>
+    <mergeCell ref="A50:B50"/>
+    <mergeCell ref="A53:B53"/>
+    <mergeCell ref="A45:B45"/>
+    <mergeCell ref="A51:B51"/>
   </mergeCells>
   <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/0. document/2. 보고서/6차 보고서_마일스톤 상세.xlsx
+++ b/0. document/2. 보고서/6차 보고서_마일스톤 상세.xlsx
@@ -1,11 +1,11 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="20730"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="21425"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{88102ED7-9745-43C8-B796-BB930407905F}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CEAA90A1-B133-40D9-AD99-63D4CF068AFE}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-105" yWindow="1695" windowWidth="19425" windowHeight="12420" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-110" yWindow="490" windowWidth="19420" windowHeight="12420" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -286,10 +286,6 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>사용자 추가/해제</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
     <t>대기친구 &gt; 요청 온 친구 (수락/거절)</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
@@ -387,6 +383,10 @@
   </si>
   <si>
     <t>최종 보고서 작성</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>친구 추가/취소</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
@@ -574,7 +574,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="28">
+  <cellXfs count="29">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
@@ -629,6 +629,7 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="20% - 강조색2" xfId="1" builtinId="34"/>
@@ -1043,6 +1044,50 @@
     </xdr:pic>
     <xdr:clientData/>
   </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>44824</xdr:colOff>
+      <xdr:row>12</xdr:row>
+      <xdr:rowOff>7472</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>2683051</xdr:colOff>
+      <xdr:row>21</xdr:row>
+      <xdr:rowOff>156882</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="6" name="그림 5">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{7CE4F15C-4CED-4584-8563-03269A43A6B5}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId10"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="18161000" y="2689413"/>
+          <a:ext cx="2638227" cy="2099234"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
 </xdr:wsDr>
 </file>
 
@@ -1311,18 +1356,18 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:O68"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="I1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="N31" sqref="N31"/>
+    <sheetView tabSelected="1" topLeftCell="G9" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="J23" sqref="J23"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="17" x14ac:dyDescent="0.45"/>
   <cols>
-    <col min="3" max="3" width="17.625" bestFit="1" customWidth="1"/>
-    <col min="4" max="15" width="40.625" customWidth="1"/>
-    <col min="17" max="17" width="40.625" customWidth="1"/>
+    <col min="3" max="3" width="17.58203125" bestFit="1" customWidth="1"/>
+    <col min="4" max="15" width="40.58203125" customWidth="1"/>
+    <col min="17" max="17" width="40.58203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:15" x14ac:dyDescent="0.45">
       <c r="B1" t="s">
         <v>0</v>
       </c>
@@ -1330,7 +1375,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="2" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:15" x14ac:dyDescent="0.45">
       <c r="B2" t="s">
         <v>2</v>
       </c>
@@ -1338,7 +1383,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="3" spans="1:15" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:15" ht="17.5" thickBot="1" x14ac:dyDescent="0.5">
       <c r="B3" s="1" t="s">
         <v>4</v>
       </c>
@@ -1347,7 +1392,7 @@
       </c>
       <c r="D3" s="1"/>
     </row>
-    <row r="4" spans="1:15" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:15" ht="17.5" thickBot="1" x14ac:dyDescent="0.5">
       <c r="B4" s="18" t="s">
         <v>61</v>
       </c>
@@ -1355,7 +1400,7 @@
         <v>43565</v>
       </c>
     </row>
-    <row r="5" spans="1:15" ht="21" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="5" spans="1:15" ht="21.5" thickBot="1" x14ac:dyDescent="0.6">
       <c r="A5" s="6" t="s">
         <v>14</v>
       </c>
@@ -1368,7 +1413,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="6" spans="1:15" s="4" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:15" s="4" customFormat="1" x14ac:dyDescent="0.45">
       <c r="D6" s="3" t="s">
         <v>6</v>
       </c>
@@ -1406,7 +1451,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="7" spans="1:15" s="4" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:15" s="4" customFormat="1" x14ac:dyDescent="0.45">
       <c r="D7" s="3" t="s">
         <v>10</v>
       </c>
@@ -1444,7 +1489,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="8" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:15" x14ac:dyDescent="0.45">
       <c r="A8" s="26" t="s">
         <v>32</v>
       </c>
@@ -1465,7 +1510,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="9" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:15" x14ac:dyDescent="0.45">
       <c r="A9" s="26" t="s">
         <v>33</v>
       </c>
@@ -1502,7 +1547,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="10" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:15" x14ac:dyDescent="0.45">
       <c r="A10" s="26" t="s">
         <v>34</v>
       </c>
@@ -1517,7 +1562,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="11" spans="1:15" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:15" ht="17.5" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A11" s="24" t="s">
         <v>35</v>
       </c>
@@ -1544,7 +1589,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="12" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:15" x14ac:dyDescent="0.45">
       <c r="A12" s="26" t="s">
         <v>37</v>
       </c>
@@ -1568,22 +1613,22 @@
         <v>64</v>
       </c>
       <c r="J12" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="K12" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="L12" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="M12" s="21" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="N12" s="20" t="s">
-        <v>91</v>
-      </c>
-    </row>
-    <row r="13" spans="1:15" x14ac:dyDescent="0.3">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="13" spans="1:15" x14ac:dyDescent="0.45">
       <c r="A13" s="11"/>
       <c r="B13" s="12"/>
       <c r="D13" t="s">
@@ -1592,233 +1637,243 @@
       <c r="E13" t="s">
         <v>45</v>
       </c>
-      <c r="I13" t="s">
-        <v>66</v>
-      </c>
+      <c r="I13" s="23"/>
       <c r="J13" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="K13" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="L13" s="17" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="M13" s="21" t="s">
-        <v>89</v>
-      </c>
-    </row>
-    <row r="14" spans="1:15" x14ac:dyDescent="0.3">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="14" spans="1:15" x14ac:dyDescent="0.45">
       <c r="A14" s="11"/>
       <c r="B14" s="12"/>
       <c r="D14" t="s">
         <v>40</v>
       </c>
-      <c r="I14" t="s">
-        <v>65</v>
-      </c>
+      <c r="I14" s="23"/>
       <c r="J14" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="K14" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="L14" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="M14" s="21" t="s">
-        <v>90</v>
-      </c>
-    </row>
-    <row r="15" spans="1:15" x14ac:dyDescent="0.3">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="15" spans="1:15" x14ac:dyDescent="0.45">
       <c r="A15" s="11"/>
       <c r="B15" s="12"/>
       <c r="D15" t="s">
         <v>39</v>
       </c>
-      <c r="I15" t="s">
-        <v>67</v>
-      </c>
+      <c r="I15" s="23"/>
       <c r="K15" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="L15" s="17" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="M15" s="22"/>
     </row>
-    <row r="16" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:15" x14ac:dyDescent="0.45">
       <c r="A16" s="11"/>
       <c r="B16" s="12"/>
       <c r="D16" t="s">
         <v>43</v>
       </c>
-      <c r="I16" t="s">
-        <v>68</v>
-      </c>
+      <c r="I16" s="23"/>
       <c r="K16" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="L16" s="17" t="s">
-        <v>86</v>
-      </c>
-    </row>
-    <row r="17" spans="1:12" x14ac:dyDescent="0.3">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="17" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A17" s="11"/>
       <c r="B17" s="12"/>
-      <c r="I17" s="16" t="s">
-        <v>69</v>
-      </c>
+      <c r="I17" s="23"/>
       <c r="K17" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="L17" s="17" t="s">
-        <v>87</v>
-      </c>
-    </row>
-    <row r="18" spans="1:12" x14ac:dyDescent="0.3">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="18" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A18" s="11"/>
       <c r="B18" s="12"/>
-      <c r="I18" s="16" t="s">
-        <v>70</v>
-      </c>
+      <c r="I18" s="23"/>
       <c r="K18" t="s">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="19" spans="1:12" x14ac:dyDescent="0.3">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="19" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A19" s="11"/>
       <c r="B19" s="12"/>
+      <c r="I19" s="23"/>
       <c r="K19" t="s">
-        <v>81</v>
-      </c>
-    </row>
-    <row r="20" spans="1:12" x14ac:dyDescent="0.3">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="20" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A20" s="11"/>
       <c r="B20" s="12"/>
-    </row>
-    <row r="21" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="I20" s="23"/>
+    </row>
+    <row r="21" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A21" s="11"/>
       <c r="B21" s="12"/>
-    </row>
-    <row r="22" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="I21" s="23"/>
+    </row>
+    <row r="22" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A22" s="11"/>
       <c r="B22" s="12"/>
-    </row>
-    <row r="23" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="I22" s="23"/>
+    </row>
+    <row r="23" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A23" s="11"/>
       <c r="B23" s="12"/>
       <c r="F23" t="s">
         <v>47</v>
       </c>
-    </row>
-    <row r="24" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="I23" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="24" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A24" s="11"/>
       <c r="B24" s="12"/>
-    </row>
-    <row r="25" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="I24" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="25" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A25" s="11"/>
       <c r="B25" s="12"/>
-    </row>
-    <row r="26" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="I25" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="26" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A26" s="11"/>
       <c r="B26" s="12"/>
-    </row>
-    <row r="27" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="I26" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="27" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A27" s="11"/>
       <c r="B27" s="12"/>
       <c r="H27" t="s">
         <v>58</v>
       </c>
-    </row>
-    <row r="28" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="I27" s="16" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="28" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A28" s="11"/>
       <c r="B28" s="12"/>
       <c r="H28" t="s">
         <v>59</v>
       </c>
-    </row>
-    <row r="29" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="I28" s="16" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="29" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A29" s="11"/>
       <c r="B29" s="12"/>
       <c r="H29" t="s">
         <v>60</v>
       </c>
     </row>
-    <row r="30" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A30" s="11"/>
       <c r="B30" s="12"/>
     </row>
-    <row r="31" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A31" s="11"/>
       <c r="B31" s="12"/>
     </row>
-    <row r="32" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A32" s="11"/>
       <c r="B32" s="12"/>
     </row>
-    <row r="33" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A33" s="11"/>
       <c r="B33" s="12"/>
       <c r="G33" t="s">
         <v>38</v>
       </c>
     </row>
-    <row r="34" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A34" s="11"/>
       <c r="B34" s="12"/>
       <c r="G34" t="s">
         <v>51</v>
       </c>
     </row>
-    <row r="35" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A35" s="11"/>
       <c r="B35" s="12"/>
       <c r="G35" t="s">
         <v>52</v>
       </c>
     </row>
-    <row r="36" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A36" s="11"/>
       <c r="B36" s="12"/>
       <c r="G36" t="s">
         <v>53</v>
       </c>
     </row>
-    <row r="37" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A37" s="11"/>
       <c r="B37" s="12"/>
     </row>
-    <row r="38" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A38" s="11"/>
       <c r="B38" s="12"/>
     </row>
-    <row r="39" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A39" s="9"/>
       <c r="B39" s="10"/>
     </row>
-    <row r="42" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A42" s="23"/>
-      <c r="B42" s="23"/>
-    </row>
-    <row r="43" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A43" s="23"/>
-      <c r="B43" s="23"/>
-    </row>
-    <row r="44" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A44" s="23"/>
-      <c r="B44" s="23"/>
-    </row>
-    <row r="45" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A45" s="23"/>
-      <c r="B45" s="23"/>
+    <row r="42" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="A42" s="28"/>
+      <c r="B42" s="28"/>
+    </row>
+    <row r="43" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="A43" s="28"/>
+      <c r="B43" s="28"/>
+    </row>
+    <row r="44" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="A44" s="28"/>
+      <c r="B44" s="28"/>
+    </row>
+    <row r="45" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="A45" s="28"/>
+      <c r="B45" s="28"/>
       <c r="G45" t="s">
         <v>54</v>
       </c>
     </row>
-    <row r="46" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A46" s="23"/>
-      <c r="B46" s="23"/>
+    <row r="46" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="A46" s="28"/>
+      <c r="B46" s="28"/>
       <c r="F46" t="s">
         <v>48</v>
       </c>
@@ -1826,40 +1881,46 @@
         <v>55</v>
       </c>
     </row>
-    <row r="50" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A50" s="23"/>
-      <c r="B50" s="23"/>
-    </row>
-    <row r="51" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A51" s="23"/>
-      <c r="B51" s="23"/>
-    </row>
-    <row r="52" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A52" s="23"/>
-      <c r="B52" s="23"/>
-    </row>
-    <row r="53" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A53" s="23"/>
-      <c r="B53" s="23"/>
-    </row>
-    <row r="54" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A54" s="23"/>
-      <c r="B54" s="23"/>
+    <row r="50" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="A50" s="28"/>
+      <c r="B50" s="28"/>
+    </row>
+    <row r="51" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="A51" s="28"/>
+      <c r="B51" s="28"/>
+    </row>
+    <row r="52" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="A52" s="28"/>
+      <c r="B52" s="28"/>
+    </row>
+    <row r="53" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="A53" s="28"/>
+      <c r="B53" s="28"/>
+    </row>
+    <row r="54" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="A54" s="28"/>
+      <c r="B54" s="28"/>
       <c r="G54" t="s">
         <v>56</v>
       </c>
     </row>
-    <row r="61" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="61" spans="1:7" x14ac:dyDescent="0.45">
       <c r="F61" t="s">
         <v>49</v>
       </c>
     </row>
-    <row r="67" spans="4:4" ht="21" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="67" spans="4:4" ht="21.5" thickBot="1" x14ac:dyDescent="0.6">
       <c r="D67" s="2"/>
     </row>
-    <row r="68" spans="4:4" ht="17.25" thickTop="1" x14ac:dyDescent="0.3"/>
+    <row r="68" spans="4:4" ht="17.5" thickTop="1" x14ac:dyDescent="0.45"/>
   </sheetData>
   <mergeCells count="15">
+    <mergeCell ref="A54:B54"/>
+    <mergeCell ref="A52:B52"/>
+    <mergeCell ref="A50:B50"/>
+    <mergeCell ref="A53:B53"/>
+    <mergeCell ref="A45:B45"/>
+    <mergeCell ref="A51:B51"/>
     <mergeCell ref="A11:B11"/>
     <mergeCell ref="A12:B12"/>
     <mergeCell ref="A46:B46"/>
@@ -1869,12 +1930,6 @@
     <mergeCell ref="A43:B43"/>
     <mergeCell ref="A10:B10"/>
     <mergeCell ref="A44:B44"/>
-    <mergeCell ref="A54:B54"/>
-    <mergeCell ref="A52:B52"/>
-    <mergeCell ref="A50:B50"/>
-    <mergeCell ref="A53:B53"/>
-    <mergeCell ref="A45:B45"/>
-    <mergeCell ref="A51:B51"/>
   </mergeCells>
   <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/0. document/2. 보고서/6차 보고서_마일스톤 상세.xlsx
+++ b/0. document/2. 보고서/6차 보고서_마일스톤 상세.xlsx
@@ -1,11 +1,11 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="21425"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="20730"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CEAA90A1-B133-40D9-AD99-63D4CF068AFE}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3E7F9AF2-BEA0-4F60-A6F2-F673C8CB1DF0}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="490" windowWidth="19420" windowHeight="12420" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-105" yWindow="1095" windowWidth="19425" windowHeight="12420" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -617,6 +617,7 @@
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -629,7 +630,6 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="20% - 강조색2" xfId="1" builtinId="34"/>
@@ -1356,18 +1356,18 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:O68"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="G9" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="J23" sqref="J23"/>
+    <sheetView tabSelected="1" topLeftCell="H1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="K31" sqref="K31"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="17" x14ac:dyDescent="0.45"/>
+  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="3" max="3" width="17.58203125" bestFit="1" customWidth="1"/>
-    <col min="4" max="15" width="40.58203125" customWidth="1"/>
-    <col min="17" max="17" width="40.58203125" customWidth="1"/>
+    <col min="3" max="3" width="17.625" bestFit="1" customWidth="1"/>
+    <col min="4" max="15" width="40.625" customWidth="1"/>
+    <col min="17" max="17" width="40.625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:15" x14ac:dyDescent="0.45">
+    <row r="1" spans="1:15" x14ac:dyDescent="0.3">
       <c r="B1" t="s">
         <v>0</v>
       </c>
@@ -1375,7 +1375,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="2" spans="1:15" x14ac:dyDescent="0.45">
+    <row r="2" spans="1:15" x14ac:dyDescent="0.3">
       <c r="B2" t="s">
         <v>2</v>
       </c>
@@ -1383,7 +1383,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="3" spans="1:15" ht="17.5" thickBot="1" x14ac:dyDescent="0.5">
+    <row r="3" spans="1:15" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B3" s="1" t="s">
         <v>4</v>
       </c>
@@ -1392,7 +1392,7 @@
       </c>
       <c r="D3" s="1"/>
     </row>
-    <row r="4" spans="1:15" ht="17.5" thickBot="1" x14ac:dyDescent="0.5">
+    <row r="4" spans="1:15" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B4" s="18" t="s">
         <v>61</v>
       </c>
@@ -1400,7 +1400,7 @@
         <v>43565</v>
       </c>
     </row>
-    <row r="5" spans="1:15" ht="21.5" thickBot="1" x14ac:dyDescent="0.6">
+    <row r="5" spans="1:15" ht="21" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A5" s="6" t="s">
         <v>14</v>
       </c>
@@ -1413,7 +1413,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="6" spans="1:15" s="4" customFormat="1" x14ac:dyDescent="0.45">
+    <row r="6" spans="1:15" s="4" customFormat="1" x14ac:dyDescent="0.3">
       <c r="D6" s="3" t="s">
         <v>6</v>
       </c>
@@ -1451,7 +1451,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="7" spans="1:15" s="4" customFormat="1" x14ac:dyDescent="0.45">
+    <row r="7" spans="1:15" s="4" customFormat="1" x14ac:dyDescent="0.3">
       <c r="D7" s="3" t="s">
         <v>10</v>
       </c>
@@ -1489,11 +1489,11 @@
         <v>30</v>
       </c>
     </row>
-    <row r="8" spans="1:15" x14ac:dyDescent="0.45">
-      <c r="A8" s="26" t="s">
+    <row r="8" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A8" s="27" t="s">
         <v>32</v>
       </c>
-      <c r="B8" s="27"/>
+      <c r="B8" s="28"/>
       <c r="D8" s="5" t="s">
         <v>31</v>
       </c>
@@ -1510,11 +1510,11 @@
         <v>36</v>
       </c>
     </row>
-    <row r="9" spans="1:15" x14ac:dyDescent="0.45">
-      <c r="A9" s="26" t="s">
+    <row r="9" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A9" s="27" t="s">
         <v>33</v>
       </c>
-      <c r="B9" s="27"/>
+      <c r="B9" s="28"/>
       <c r="D9" s="5"/>
       <c r="E9" s="5" t="s">
         <v>31</v>
@@ -1547,11 +1547,11 @@
         <v>31</v>
       </c>
     </row>
-    <row r="10" spans="1:15" x14ac:dyDescent="0.45">
-      <c r="A10" s="26" t="s">
+    <row r="10" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A10" s="27" t="s">
         <v>34</v>
       </c>
-      <c r="B10" s="27"/>
+      <c r="B10" s="28"/>
       <c r="M10" s="5" t="s">
         <v>31</v>
       </c>
@@ -1562,11 +1562,11 @@
         <v>31</v>
       </c>
     </row>
-    <row r="11" spans="1:15" ht="17.5" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="A11" s="24" t="s">
+    <row r="11" spans="1:15" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A11" s="25" t="s">
         <v>35</v>
       </c>
-      <c r="B11" s="25"/>
+      <c r="B11" s="26"/>
       <c r="C11" s="13"/>
       <c r="D11" s="13"/>
       <c r="E11" s="13"/>
@@ -1589,11 +1589,11 @@
         <v>31</v>
       </c>
     </row>
-    <row r="12" spans="1:15" x14ac:dyDescent="0.45">
-      <c r="A12" s="26" t="s">
+    <row r="12" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A12" s="27" t="s">
         <v>37</v>
       </c>
-      <c r="B12" s="27"/>
+      <c r="B12" s="28"/>
       <c r="D12" t="s">
         <v>42</v>
       </c>
@@ -1628,7 +1628,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="13" spans="1:15" x14ac:dyDescent="0.45">
+    <row r="13" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A13" s="11"/>
       <c r="B13" s="12"/>
       <c r="D13" t="s">
@@ -1651,7 +1651,7 @@
         <v>88</v>
       </c>
     </row>
-    <row r="14" spans="1:15" x14ac:dyDescent="0.45">
+    <row r="14" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A14" s="11"/>
       <c r="B14" s="12"/>
       <c r="D14" t="s">
@@ -1664,14 +1664,11 @@
       <c r="K14" t="s">
         <v>75</v>
       </c>
-      <c r="L14" t="s">
-        <v>83</v>
-      </c>
       <c r="M14" s="21" t="s">
         <v>89</v>
       </c>
     </row>
-    <row r="15" spans="1:15" x14ac:dyDescent="0.45">
+    <row r="15" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A15" s="11"/>
       <c r="B15" s="12"/>
       <c r="D15" t="s">
@@ -1686,7 +1683,7 @@
       </c>
       <c r="M15" s="22"/>
     </row>
-    <row r="16" spans="1:15" x14ac:dyDescent="0.45">
+    <row r="16" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A16" s="11"/>
       <c r="B16" s="12"/>
       <c r="D16" t="s">
@@ -1700,7 +1697,7 @@
         <v>85</v>
       </c>
     </row>
-    <row r="17" spans="1:12" x14ac:dyDescent="0.45">
+    <row r="17" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A17" s="11"/>
       <c r="B17" s="12"/>
       <c r="I17" s="23"/>
@@ -1711,7 +1708,7 @@
         <v>86</v>
       </c>
     </row>
-    <row r="18" spans="1:12" x14ac:dyDescent="0.45">
+    <row r="18" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A18" s="11"/>
       <c r="B18" s="12"/>
       <c r="I18" s="23"/>
@@ -1719,7 +1716,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="19" spans="1:12" x14ac:dyDescent="0.45">
+    <row r="19" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A19" s="11"/>
       <c r="B19" s="12"/>
       <c r="I19" s="23"/>
@@ -1727,22 +1724,22 @@
         <v>80</v>
       </c>
     </row>
-    <row r="20" spans="1:12" x14ac:dyDescent="0.45">
+    <row r="20" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A20" s="11"/>
       <c r="B20" s="12"/>
       <c r="I20" s="23"/>
     </row>
-    <row r="21" spans="1:12" x14ac:dyDescent="0.45">
+    <row r="21" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A21" s="11"/>
       <c r="B21" s="12"/>
       <c r="I21" s="23"/>
     </row>
-    <row r="22" spans="1:12" x14ac:dyDescent="0.45">
+    <row r="22" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A22" s="11"/>
       <c r="B22" s="12"/>
       <c r="I22" s="23"/>
     </row>
-    <row r="23" spans="1:12" x14ac:dyDescent="0.45">
+    <row r="23" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A23" s="11"/>
       <c r="B23" s="12"/>
       <c r="F23" t="s">
@@ -1752,28 +1749,28 @@
         <v>91</v>
       </c>
     </row>
-    <row r="24" spans="1:12" x14ac:dyDescent="0.45">
+    <row r="24" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A24" s="11"/>
       <c r="B24" s="12"/>
       <c r="I24" t="s">
         <v>65</v>
       </c>
     </row>
-    <row r="25" spans="1:12" x14ac:dyDescent="0.45">
+    <row r="25" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A25" s="11"/>
       <c r="B25" s="12"/>
       <c r="I25" t="s">
         <v>66</v>
       </c>
     </row>
-    <row r="26" spans="1:12" x14ac:dyDescent="0.45">
+    <row r="26" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A26" s="11"/>
       <c r="B26" s="12"/>
       <c r="I26" t="s">
         <v>67</v>
       </c>
     </row>
-    <row r="27" spans="1:12" x14ac:dyDescent="0.45">
+    <row r="27" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A27" s="11"/>
       <c r="B27" s="12"/>
       <c r="H27" t="s">
@@ -1783,7 +1780,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="28" spans="1:12" x14ac:dyDescent="0.45">
+    <row r="28" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A28" s="11"/>
       <c r="B28" s="12"/>
       <c r="H28" t="s">
@@ -1793,87 +1790,90 @@
         <v>69</v>
       </c>
     </row>
-    <row r="29" spans="1:12" x14ac:dyDescent="0.45">
+    <row r="29" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A29" s="11"/>
       <c r="B29" s="12"/>
       <c r="H29" t="s">
         <v>60</v>
       </c>
-    </row>
-    <row r="30" spans="1:12" x14ac:dyDescent="0.45">
+      <c r="I29" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="30" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A30" s="11"/>
       <c r="B30" s="12"/>
     </row>
-    <row r="31" spans="1:12" x14ac:dyDescent="0.45">
+    <row r="31" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A31" s="11"/>
       <c r="B31" s="12"/>
     </row>
-    <row r="32" spans="1:12" x14ac:dyDescent="0.45">
+    <row r="32" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A32" s="11"/>
       <c r="B32" s="12"/>
     </row>
-    <row r="33" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="33" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A33" s="11"/>
       <c r="B33" s="12"/>
       <c r="G33" t="s">
         <v>38</v>
       </c>
     </row>
-    <row r="34" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="34" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A34" s="11"/>
       <c r="B34" s="12"/>
       <c r="G34" t="s">
         <v>51</v>
       </c>
     </row>
-    <row r="35" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="35" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A35" s="11"/>
       <c r="B35" s="12"/>
       <c r="G35" t="s">
         <v>52</v>
       </c>
     </row>
-    <row r="36" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="36" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A36" s="11"/>
       <c r="B36" s="12"/>
       <c r="G36" t="s">
         <v>53</v>
       </c>
     </row>
-    <row r="37" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="37" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A37" s="11"/>
       <c r="B37" s="12"/>
     </row>
-    <row r="38" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="38" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A38" s="11"/>
       <c r="B38" s="12"/>
     </row>
-    <row r="39" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="39" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A39" s="9"/>
       <c r="B39" s="10"/>
     </row>
-    <row r="42" spans="1:7" x14ac:dyDescent="0.45">
-      <c r="A42" s="28"/>
-      <c r="B42" s="28"/>
-    </row>
-    <row r="43" spans="1:7" x14ac:dyDescent="0.45">
-      <c r="A43" s="28"/>
-      <c r="B43" s="28"/>
-    </row>
-    <row r="44" spans="1:7" x14ac:dyDescent="0.45">
-      <c r="A44" s="28"/>
-      <c r="B44" s="28"/>
-    </row>
-    <row r="45" spans="1:7" x14ac:dyDescent="0.45">
-      <c r="A45" s="28"/>
-      <c r="B45" s="28"/>
+    <row r="42" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A42" s="24"/>
+      <c r="B42" s="24"/>
+    </row>
+    <row r="43" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A43" s="24"/>
+      <c r="B43" s="24"/>
+    </row>
+    <row r="44" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A44" s="24"/>
+      <c r="B44" s="24"/>
+    </row>
+    <row r="45" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A45" s="24"/>
+      <c r="B45" s="24"/>
       <c r="G45" t="s">
         <v>54</v>
       </c>
     </row>
-    <row r="46" spans="1:7" x14ac:dyDescent="0.45">
-      <c r="A46" s="28"/>
-      <c r="B46" s="28"/>
+    <row r="46" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A46" s="24"/>
+      <c r="B46" s="24"/>
       <c r="F46" t="s">
         <v>48</v>
       </c>
@@ -1881,46 +1881,40 @@
         <v>55</v>
       </c>
     </row>
-    <row r="50" spans="1:7" x14ac:dyDescent="0.45">
-      <c r="A50" s="28"/>
-      <c r="B50" s="28"/>
-    </row>
-    <row r="51" spans="1:7" x14ac:dyDescent="0.45">
-      <c r="A51" s="28"/>
-      <c r="B51" s="28"/>
-    </row>
-    <row r="52" spans="1:7" x14ac:dyDescent="0.45">
-      <c r="A52" s="28"/>
-      <c r="B52" s="28"/>
-    </row>
-    <row r="53" spans="1:7" x14ac:dyDescent="0.45">
-      <c r="A53" s="28"/>
-      <c r="B53" s="28"/>
-    </row>
-    <row r="54" spans="1:7" x14ac:dyDescent="0.45">
-      <c r="A54" s="28"/>
-      <c r="B54" s="28"/>
+    <row r="50" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A50" s="24"/>
+      <c r="B50" s="24"/>
+    </row>
+    <row r="51" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A51" s="24"/>
+      <c r="B51" s="24"/>
+    </row>
+    <row r="52" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A52" s="24"/>
+      <c r="B52" s="24"/>
+    </row>
+    <row r="53" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A53" s="24"/>
+      <c r="B53" s="24"/>
+    </row>
+    <row r="54" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A54" s="24"/>
+      <c r="B54" s="24"/>
       <c r="G54" t="s">
         <v>56</v>
       </c>
     </row>
-    <row r="61" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="61" spans="1:7" x14ac:dyDescent="0.3">
       <c r="F61" t="s">
         <v>49</v>
       </c>
     </row>
-    <row r="67" spans="4:4" ht="21.5" thickBot="1" x14ac:dyDescent="0.6">
+    <row r="67" spans="4:4" ht="21" thickBot="1" x14ac:dyDescent="0.4">
       <c r="D67" s="2"/>
     </row>
-    <row r="68" spans="4:4" ht="17.5" thickTop="1" x14ac:dyDescent="0.45"/>
+    <row r="68" spans="4:4" ht="17.25" thickTop="1" x14ac:dyDescent="0.3"/>
   </sheetData>
   <mergeCells count="15">
-    <mergeCell ref="A54:B54"/>
-    <mergeCell ref="A52:B52"/>
-    <mergeCell ref="A50:B50"/>
-    <mergeCell ref="A53:B53"/>
-    <mergeCell ref="A45:B45"/>
-    <mergeCell ref="A51:B51"/>
     <mergeCell ref="A11:B11"/>
     <mergeCell ref="A12:B12"/>
     <mergeCell ref="A46:B46"/>
@@ -1930,6 +1924,12 @@
     <mergeCell ref="A43:B43"/>
     <mergeCell ref="A10:B10"/>
     <mergeCell ref="A44:B44"/>
+    <mergeCell ref="A54:B54"/>
+    <mergeCell ref="A52:B52"/>
+    <mergeCell ref="A50:B50"/>
+    <mergeCell ref="A53:B53"/>
+    <mergeCell ref="A45:B45"/>
+    <mergeCell ref="A51:B51"/>
   </mergeCells>
   <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/0. document/2. 보고서/6차 보고서_마일스톤 상세.xlsx
+++ b/0. document/2. 보고서/6차 보고서_마일스톤 상세.xlsx
@@ -3,9 +3,9 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="20730"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3E7F9AF2-BEA0-4F60-A6F2-F673C8CB1DF0}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BDF0B944-E525-4978-B92D-3587EDA27EED}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-105" yWindow="1095" windowWidth="19425" windowHeight="12420" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-105" yWindow="1695" windowWidth="19425" windowHeight="12420" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -617,7 +617,6 @@
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -630,6 +629,7 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="20% - 강조색2" xfId="1" builtinId="34"/>
@@ -1357,7 +1357,7 @@
   <dimension ref="A1:O68"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="H1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="K31" sqref="K31"/>
+      <selection activeCell="J21" sqref="J21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -1490,10 +1490,10 @@
       </c>
     </row>
     <row r="8" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A8" s="27" t="s">
+      <c r="A8" s="26" t="s">
         <v>32</v>
       </c>
-      <c r="B8" s="28"/>
+      <c r="B8" s="27"/>
       <c r="D8" s="5" t="s">
         <v>31</v>
       </c>
@@ -1511,10 +1511,10 @@
       </c>
     </row>
     <row r="9" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A9" s="27" t="s">
+      <c r="A9" s="26" t="s">
         <v>33</v>
       </c>
-      <c r="B9" s="28"/>
+      <c r="B9" s="27"/>
       <c r="D9" s="5"/>
       <c r="E9" s="5" t="s">
         <v>31</v>
@@ -1548,10 +1548,10 @@
       </c>
     </row>
     <row r="10" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A10" s="27" t="s">
+      <c r="A10" s="26" t="s">
         <v>34</v>
       </c>
-      <c r="B10" s="28"/>
+      <c r="B10" s="27"/>
       <c r="M10" s="5" t="s">
         <v>31</v>
       </c>
@@ -1563,10 +1563,10 @@
       </c>
     </row>
     <row r="11" spans="1:15" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A11" s="25" t="s">
+      <c r="A11" s="24" t="s">
         <v>35</v>
       </c>
-      <c r="B11" s="26"/>
+      <c r="B11" s="25"/>
       <c r="C11" s="13"/>
       <c r="D11" s="13"/>
       <c r="E11" s="13"/>
@@ -1590,10 +1590,10 @@
       </c>
     </row>
     <row r="12" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A12" s="27" t="s">
+      <c r="A12" s="26" t="s">
         <v>37</v>
       </c>
-      <c r="B12" s="28"/>
+      <c r="B12" s="27"/>
       <c r="D12" t="s">
         <v>42</v>
       </c>
@@ -1612,8 +1612,8 @@
       <c r="I12" t="s">
         <v>64</v>
       </c>
-      <c r="J12" t="s">
-        <v>70</v>
+      <c r="J12" s="17" t="s">
+        <v>84</v>
       </c>
       <c r="K12" t="s">
         <v>73</v>
@@ -1638,8 +1638,8 @@
         <v>45</v>
       </c>
       <c r="I13" s="23"/>
-      <c r="J13" t="s">
-        <v>71</v>
+      <c r="J13" s="17" t="s">
+        <v>85</v>
       </c>
       <c r="K13" t="s">
         <v>74</v>
@@ -1658,11 +1658,14 @@
         <v>40</v>
       </c>
       <c r="I14" s="23"/>
-      <c r="J14" t="s">
-        <v>72</v>
+      <c r="J14" s="17" t="s">
+        <v>86</v>
       </c>
       <c r="K14" t="s">
         <v>75</v>
+      </c>
+      <c r="L14" t="s">
+        <v>70</v>
       </c>
       <c r="M14" s="21" t="s">
         <v>89</v>
@@ -1678,8 +1681,8 @@
       <c r="K15" t="s">
         <v>76</v>
       </c>
-      <c r="L15" s="17" t="s">
-        <v>84</v>
+      <c r="L15" t="s">
+        <v>71</v>
       </c>
       <c r="M15" s="22"/>
     </row>
@@ -1693,22 +1696,19 @@
       <c r="K16" t="s">
         <v>77</v>
       </c>
-      <c r="L16" s="17" t="s">
-        <v>85</v>
-      </c>
-    </row>
-    <row r="17" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="L16" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="17" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A17" s="11"/>
       <c r="B17" s="12"/>
       <c r="I17" s="23"/>
       <c r="K17" t="s">
         <v>78</v>
       </c>
-      <c r="L17" s="17" t="s">
-        <v>86</v>
-      </c>
-    </row>
-    <row r="18" spans="1:12" x14ac:dyDescent="0.3">
+    </row>
+    <row r="18" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A18" s="11"/>
       <c r="B18" s="12"/>
       <c r="I18" s="23"/>
@@ -1716,7 +1716,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="19" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A19" s="11"/>
       <c r="B19" s="12"/>
       <c r="I19" s="23"/>
@@ -1724,22 +1724,22 @@
         <v>80</v>
       </c>
     </row>
-    <row r="20" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A20" s="11"/>
       <c r="B20" s="12"/>
       <c r="I20" s="23"/>
     </row>
-    <row r="21" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A21" s="11"/>
       <c r="B21" s="12"/>
       <c r="I21" s="23"/>
     </row>
-    <row r="22" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A22" s="11"/>
       <c r="B22" s="12"/>
       <c r="I22" s="23"/>
     </row>
-    <row r="23" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A23" s="11"/>
       <c r="B23" s="12"/>
       <c r="F23" t="s">
@@ -1749,28 +1749,28 @@
         <v>91</v>
       </c>
     </row>
-    <row r="24" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A24" s="11"/>
       <c r="B24" s="12"/>
       <c r="I24" t="s">
         <v>65</v>
       </c>
     </row>
-    <row r="25" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A25" s="11"/>
       <c r="B25" s="12"/>
       <c r="I25" t="s">
         <v>66</v>
       </c>
     </row>
-    <row r="26" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A26" s="11"/>
       <c r="B26" s="12"/>
       <c r="I26" t="s">
         <v>67</v>
       </c>
     </row>
-    <row r="27" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A27" s="11"/>
       <c r="B27" s="12"/>
       <c r="H27" t="s">
@@ -1780,7 +1780,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="28" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A28" s="11"/>
       <c r="B28" s="12"/>
       <c r="H28" t="s">
@@ -1790,7 +1790,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="29" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A29" s="11"/>
       <c r="B29" s="12"/>
       <c r="H29" t="s">
@@ -1800,15 +1800,15 @@
         <v>83</v>
       </c>
     </row>
-    <row r="30" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A30" s="11"/>
       <c r="B30" s="12"/>
     </row>
-    <row r="31" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A31" s="11"/>
       <c r="B31" s="12"/>
     </row>
-    <row r="32" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A32" s="11"/>
       <c r="B32" s="12"/>
     </row>
@@ -1853,27 +1853,27 @@
       <c r="B39" s="10"/>
     </row>
     <row r="42" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A42" s="24"/>
-      <c r="B42" s="24"/>
+      <c r="A42" s="28"/>
+      <c r="B42" s="28"/>
     </row>
     <row r="43" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A43" s="24"/>
-      <c r="B43" s="24"/>
+      <c r="A43" s="28"/>
+      <c r="B43" s="28"/>
     </row>
     <row r="44" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A44" s="24"/>
-      <c r="B44" s="24"/>
+      <c r="A44" s="28"/>
+      <c r="B44" s="28"/>
     </row>
     <row r="45" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A45" s="24"/>
-      <c r="B45" s="24"/>
+      <c r="A45" s="28"/>
+      <c r="B45" s="28"/>
       <c r="G45" t="s">
         <v>54</v>
       </c>
     </row>
     <row r="46" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A46" s="24"/>
-      <c r="B46" s="24"/>
+      <c r="A46" s="28"/>
+      <c r="B46" s="28"/>
       <c r="F46" t="s">
         <v>48</v>
       </c>
@@ -1882,24 +1882,24 @@
       </c>
     </row>
     <row r="50" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A50" s="24"/>
-      <c r="B50" s="24"/>
+      <c r="A50" s="28"/>
+      <c r="B50" s="28"/>
     </row>
     <row r="51" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A51" s="24"/>
-      <c r="B51" s="24"/>
+      <c r="A51" s="28"/>
+      <c r="B51" s="28"/>
     </row>
     <row r="52" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A52" s="24"/>
-      <c r="B52" s="24"/>
+      <c r="A52" s="28"/>
+      <c r="B52" s="28"/>
     </row>
     <row r="53" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A53" s="24"/>
-      <c r="B53" s="24"/>
+      <c r="A53" s="28"/>
+      <c r="B53" s="28"/>
     </row>
     <row r="54" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A54" s="24"/>
-      <c r="B54" s="24"/>
+      <c r="A54" s="28"/>
+      <c r="B54" s="28"/>
       <c r="G54" t="s">
         <v>56</v>
       </c>
@@ -1915,6 +1915,12 @@
     <row r="68" spans="4:4" ht="17.25" thickTop="1" x14ac:dyDescent="0.3"/>
   </sheetData>
   <mergeCells count="15">
+    <mergeCell ref="A54:B54"/>
+    <mergeCell ref="A52:B52"/>
+    <mergeCell ref="A50:B50"/>
+    <mergeCell ref="A53:B53"/>
+    <mergeCell ref="A45:B45"/>
+    <mergeCell ref="A51:B51"/>
     <mergeCell ref="A11:B11"/>
     <mergeCell ref="A12:B12"/>
     <mergeCell ref="A46:B46"/>
@@ -1924,12 +1930,6 @@
     <mergeCell ref="A43:B43"/>
     <mergeCell ref="A10:B10"/>
     <mergeCell ref="A44:B44"/>
-    <mergeCell ref="A54:B54"/>
-    <mergeCell ref="A52:B52"/>
-    <mergeCell ref="A50:B50"/>
-    <mergeCell ref="A53:B53"/>
-    <mergeCell ref="A45:B45"/>
-    <mergeCell ref="A51:B51"/>
   </mergeCells>
   <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/0. document/2. 보고서/6차 보고서_마일스톤 상세.xlsx
+++ b/0. document/2. 보고서/6차 보고서_마일스톤 상세.xlsx
@@ -1,11 +1,11 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="20730"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="21425"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BDF0B944-E525-4978-B92D-3587EDA27EED}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{819844E6-EE44-4956-B89B-718C5EB0CABF}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-105" yWindow="1695" windowWidth="19425" windowHeight="12420" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-110" yWindow="490" windowWidth="19420" windowHeight="12420" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -574,7 +574,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="29">
+  <cellXfs count="30">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
@@ -617,6 +617,7 @@
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -629,7 +630,7 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="20% - 강조색2" xfId="1" builtinId="34"/>
@@ -1356,18 +1357,18 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:O68"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="H1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="J21" sqref="J21"/>
+    <sheetView tabSelected="1" topLeftCell="I1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="K24" sqref="K24"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="17" x14ac:dyDescent="0.45"/>
   <cols>
-    <col min="3" max="3" width="17.625" bestFit="1" customWidth="1"/>
-    <col min="4" max="15" width="40.625" customWidth="1"/>
-    <col min="17" max="17" width="40.625" customWidth="1"/>
+    <col min="3" max="3" width="17.58203125" bestFit="1" customWidth="1"/>
+    <col min="4" max="15" width="40.58203125" customWidth="1"/>
+    <col min="17" max="17" width="40.58203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:15" x14ac:dyDescent="0.45">
       <c r="B1" t="s">
         <v>0</v>
       </c>
@@ -1375,7 +1376,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="2" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:15" x14ac:dyDescent="0.45">
       <c r="B2" t="s">
         <v>2</v>
       </c>
@@ -1383,7 +1384,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="3" spans="1:15" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:15" ht="17.5" thickBot="1" x14ac:dyDescent="0.5">
       <c r="B3" s="1" t="s">
         <v>4</v>
       </c>
@@ -1392,7 +1393,7 @@
       </c>
       <c r="D3" s="1"/>
     </row>
-    <row r="4" spans="1:15" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:15" ht="17.5" thickBot="1" x14ac:dyDescent="0.5">
       <c r="B4" s="18" t="s">
         <v>61</v>
       </c>
@@ -1400,7 +1401,7 @@
         <v>43565</v>
       </c>
     </row>
-    <row r="5" spans="1:15" ht="21" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="5" spans="1:15" ht="21.5" thickBot="1" x14ac:dyDescent="0.6">
       <c r="A5" s="6" t="s">
         <v>14</v>
       </c>
@@ -1413,7 +1414,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="6" spans="1:15" s="4" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:15" s="4" customFormat="1" x14ac:dyDescent="0.45">
       <c r="D6" s="3" t="s">
         <v>6</v>
       </c>
@@ -1451,7 +1452,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="7" spans="1:15" s="4" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:15" s="4" customFormat="1" x14ac:dyDescent="0.45">
       <c r="D7" s="3" t="s">
         <v>10</v>
       </c>
@@ -1489,11 +1490,11 @@
         <v>30</v>
       </c>
     </row>
-    <row r="8" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A8" s="26" t="s">
+    <row r="8" spans="1:15" x14ac:dyDescent="0.45">
+      <c r="A8" s="27" t="s">
         <v>32</v>
       </c>
-      <c r="B8" s="27"/>
+      <c r="B8" s="28"/>
       <c r="D8" s="5" t="s">
         <v>31</v>
       </c>
@@ -1510,11 +1511,11 @@
         <v>36</v>
       </c>
     </row>
-    <row r="9" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A9" s="26" t="s">
+    <row r="9" spans="1:15" x14ac:dyDescent="0.45">
+      <c r="A9" s="27" t="s">
         <v>33</v>
       </c>
-      <c r="B9" s="27"/>
+      <c r="B9" s="28"/>
       <c r="D9" s="5"/>
       <c r="E9" s="5" t="s">
         <v>31</v>
@@ -1547,11 +1548,11 @@
         <v>31</v>
       </c>
     </row>
-    <row r="10" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A10" s="26" t="s">
+    <row r="10" spans="1:15" x14ac:dyDescent="0.45">
+      <c r="A10" s="27" t="s">
         <v>34</v>
       </c>
-      <c r="B10" s="27"/>
+      <c r="B10" s="28"/>
       <c r="M10" s="5" t="s">
         <v>31</v>
       </c>
@@ -1562,11 +1563,11 @@
         <v>31</v>
       </c>
     </row>
-    <row r="11" spans="1:15" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A11" s="24" t="s">
+    <row r="11" spans="1:15" ht="17.5" thickBot="1" x14ac:dyDescent="0.5">
+      <c r="A11" s="25" t="s">
         <v>35</v>
       </c>
-      <c r="B11" s="25"/>
+      <c r="B11" s="26"/>
       <c r="C11" s="13"/>
       <c r="D11" s="13"/>
       <c r="E11" s="13"/>
@@ -1589,11 +1590,11 @@
         <v>31</v>
       </c>
     </row>
-    <row r="12" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A12" s="26" t="s">
+    <row r="12" spans="1:15" x14ac:dyDescent="0.45">
+      <c r="A12" s="27" t="s">
         <v>37</v>
       </c>
-      <c r="B12" s="27"/>
+      <c r="B12" s="28"/>
       <c r="D12" t="s">
         <v>42</v>
       </c>
@@ -1628,7 +1629,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="13" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:15" x14ac:dyDescent="0.45">
       <c r="A13" s="11"/>
       <c r="B13" s="12"/>
       <c r="D13" t="s">
@@ -1641,7 +1642,7 @@
       <c r="J13" s="17" t="s">
         <v>85</v>
       </c>
-      <c r="K13" t="s">
+      <c r="K13" s="29" t="s">
         <v>74</v>
       </c>
       <c r="L13" s="17" t="s">
@@ -1651,16 +1652,13 @@
         <v>88</v>
       </c>
     </row>
-    <row r="14" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:15" x14ac:dyDescent="0.45">
       <c r="A14" s="11"/>
       <c r="B14" s="12"/>
       <c r="D14" t="s">
         <v>40</v>
       </c>
       <c r="I14" s="23"/>
-      <c r="J14" s="17" t="s">
-        <v>86</v>
-      </c>
       <c r="K14" t="s">
         <v>75</v>
       </c>
@@ -1671,7 +1669,7 @@
         <v>89</v>
       </c>
     </row>
-    <row r="15" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:15" x14ac:dyDescent="0.45">
       <c r="A15" s="11"/>
       <c r="B15" s="12"/>
       <c r="D15" t="s">
@@ -1686,7 +1684,7 @@
       </c>
       <c r="M15" s="22"/>
     </row>
-    <row r="16" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:15" x14ac:dyDescent="0.45">
       <c r="A16" s="11"/>
       <c r="B16" s="12"/>
       <c r="D16" t="s">
@@ -1700,15 +1698,15 @@
         <v>72</v>
       </c>
     </row>
-    <row r="17" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A17" s="11"/>
       <c r="B17" s="12"/>
       <c r="I17" s="23"/>
-      <c r="K17" t="s">
+      <c r="K17" s="29" t="s">
         <v>78</v>
       </c>
     </row>
-    <row r="18" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A18" s="11"/>
       <c r="B18" s="12"/>
       <c r="I18" s="23"/>
@@ -1716,7 +1714,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="19" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A19" s="11"/>
       <c r="B19" s="12"/>
       <c r="I19" s="23"/>
@@ -1724,22 +1722,25 @@
         <v>80</v>
       </c>
     </row>
-    <row r="20" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A20" s="11"/>
       <c r="B20" s="12"/>
       <c r="I20" s="23"/>
-    </row>
-    <row r="21" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="K20" s="17" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="21" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A21" s="11"/>
       <c r="B21" s="12"/>
       <c r="I21" s="23"/>
     </row>
-    <row r="22" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A22" s="11"/>
       <c r="B22" s="12"/>
       <c r="I22" s="23"/>
     </row>
-    <row r="23" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A23" s="11"/>
       <c r="B23" s="12"/>
       <c r="F23" t="s">
@@ -1749,28 +1750,28 @@
         <v>91</v>
       </c>
     </row>
-    <row r="24" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A24" s="11"/>
       <c r="B24" s="12"/>
       <c r="I24" t="s">
         <v>65</v>
       </c>
     </row>
-    <row r="25" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A25" s="11"/>
       <c r="B25" s="12"/>
       <c r="I25" t="s">
         <v>66</v>
       </c>
     </row>
-    <row r="26" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A26" s="11"/>
       <c r="B26" s="12"/>
       <c r="I26" t="s">
         <v>67</v>
       </c>
     </row>
-    <row r="27" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A27" s="11"/>
       <c r="B27" s="12"/>
       <c r="H27" t="s">
@@ -1780,7 +1781,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="28" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A28" s="11"/>
       <c r="B28" s="12"/>
       <c r="H28" t="s">
@@ -1790,7 +1791,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="29" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A29" s="11"/>
       <c r="B29" s="12"/>
       <c r="H29" t="s">
@@ -1800,80 +1801,80 @@
         <v>83</v>
       </c>
     </row>
-    <row r="30" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A30" s="11"/>
       <c r="B30" s="12"/>
     </row>
-    <row r="31" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A31" s="11"/>
       <c r="B31" s="12"/>
     </row>
-    <row r="32" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A32" s="11"/>
       <c r="B32" s="12"/>
     </row>
-    <row r="33" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A33" s="11"/>
       <c r="B33" s="12"/>
       <c r="G33" t="s">
         <v>38</v>
       </c>
     </row>
-    <row r="34" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A34" s="11"/>
       <c r="B34" s="12"/>
       <c r="G34" t="s">
         <v>51</v>
       </c>
     </row>
-    <row r="35" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A35" s="11"/>
       <c r="B35" s="12"/>
       <c r="G35" t="s">
         <v>52</v>
       </c>
     </row>
-    <row r="36" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A36" s="11"/>
       <c r="B36" s="12"/>
       <c r="G36" t="s">
         <v>53</v>
       </c>
     </row>
-    <row r="37" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A37" s="11"/>
       <c r="B37" s="12"/>
     </row>
-    <row r="38" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A38" s="11"/>
       <c r="B38" s="12"/>
     </row>
-    <row r="39" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A39" s="9"/>
       <c r="B39" s="10"/>
     </row>
-    <row r="42" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A42" s="28"/>
-      <c r="B42" s="28"/>
-    </row>
-    <row r="43" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A43" s="28"/>
-      <c r="B43" s="28"/>
-    </row>
-    <row r="44" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A44" s="28"/>
-      <c r="B44" s="28"/>
-    </row>
-    <row r="45" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A45" s="28"/>
-      <c r="B45" s="28"/>
+    <row r="42" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="A42" s="24"/>
+      <c r="B42" s="24"/>
+    </row>
+    <row r="43" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="A43" s="24"/>
+      <c r="B43" s="24"/>
+    </row>
+    <row r="44" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="A44" s="24"/>
+      <c r="B44" s="24"/>
+    </row>
+    <row r="45" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="A45" s="24"/>
+      <c r="B45" s="24"/>
       <c r="G45" t="s">
         <v>54</v>
       </c>
     </row>
-    <row r="46" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A46" s="28"/>
-      <c r="B46" s="28"/>
+    <row r="46" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="A46" s="24"/>
+      <c r="B46" s="24"/>
       <c r="F46" t="s">
         <v>48</v>
       </c>
@@ -1881,46 +1882,40 @@
         <v>55</v>
       </c>
     </row>
-    <row r="50" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A50" s="28"/>
-      <c r="B50" s="28"/>
-    </row>
-    <row r="51" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A51" s="28"/>
-      <c r="B51" s="28"/>
-    </row>
-    <row r="52" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A52" s="28"/>
-      <c r="B52" s="28"/>
-    </row>
-    <row r="53" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A53" s="28"/>
-      <c r="B53" s="28"/>
-    </row>
-    <row r="54" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A54" s="28"/>
-      <c r="B54" s="28"/>
+    <row r="50" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="A50" s="24"/>
+      <c r="B50" s="24"/>
+    </row>
+    <row r="51" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="A51" s="24"/>
+      <c r="B51" s="24"/>
+    </row>
+    <row r="52" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="A52" s="24"/>
+      <c r="B52" s="24"/>
+    </row>
+    <row r="53" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="A53" s="24"/>
+      <c r="B53" s="24"/>
+    </row>
+    <row r="54" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="A54" s="24"/>
+      <c r="B54" s="24"/>
       <c r="G54" t="s">
         <v>56</v>
       </c>
     </row>
-    <row r="61" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="61" spans="1:7" x14ac:dyDescent="0.45">
       <c r="F61" t="s">
         <v>49</v>
       </c>
     </row>
-    <row r="67" spans="4:4" ht="21" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="67" spans="4:4" ht="21.5" thickBot="1" x14ac:dyDescent="0.6">
       <c r="D67" s="2"/>
     </row>
-    <row r="68" spans="4:4" ht="17.25" thickTop="1" x14ac:dyDescent="0.3"/>
+    <row r="68" spans="4:4" ht="17.5" thickTop="1" x14ac:dyDescent="0.45"/>
   </sheetData>
   <mergeCells count="15">
-    <mergeCell ref="A54:B54"/>
-    <mergeCell ref="A52:B52"/>
-    <mergeCell ref="A50:B50"/>
-    <mergeCell ref="A53:B53"/>
-    <mergeCell ref="A45:B45"/>
-    <mergeCell ref="A51:B51"/>
     <mergeCell ref="A11:B11"/>
     <mergeCell ref="A12:B12"/>
     <mergeCell ref="A46:B46"/>
@@ -1930,6 +1925,12 @@
     <mergeCell ref="A43:B43"/>
     <mergeCell ref="A10:B10"/>
     <mergeCell ref="A44:B44"/>
+    <mergeCell ref="A54:B54"/>
+    <mergeCell ref="A52:B52"/>
+    <mergeCell ref="A50:B50"/>
+    <mergeCell ref="A53:B53"/>
+    <mergeCell ref="A45:B45"/>
+    <mergeCell ref="A51:B51"/>
   </mergeCells>
   <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/0. document/2. 보고서/6차 보고서_마일스톤 상세.xlsx
+++ b/0. document/2. 보고서/6차 보고서_마일스톤 상세.xlsx
@@ -1,11 +1,11 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="20730"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="21425"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3E7F9AF2-BEA0-4F60-A6F2-F673C8CB1DF0}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{819844E6-EE44-4956-B89B-718C5EB0CABF}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-105" yWindow="1095" windowWidth="19425" windowHeight="12420" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-110" yWindow="490" windowWidth="19420" windowHeight="12420" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -574,7 +574,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="29">
+  <cellXfs count="30">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
@@ -630,6 +630,7 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="20% - 강조색2" xfId="1" builtinId="34"/>
@@ -1356,18 +1357,18 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:O68"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="H1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="K31" sqref="K31"/>
+    <sheetView tabSelected="1" topLeftCell="I1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="K24" sqref="K24"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="17" x14ac:dyDescent="0.45"/>
   <cols>
-    <col min="3" max="3" width="17.625" bestFit="1" customWidth="1"/>
-    <col min="4" max="15" width="40.625" customWidth="1"/>
-    <col min="17" max="17" width="40.625" customWidth="1"/>
+    <col min="3" max="3" width="17.58203125" bestFit="1" customWidth="1"/>
+    <col min="4" max="15" width="40.58203125" customWidth="1"/>
+    <col min="17" max="17" width="40.58203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:15" x14ac:dyDescent="0.45">
       <c r="B1" t="s">
         <v>0</v>
       </c>
@@ -1375,7 +1376,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="2" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:15" x14ac:dyDescent="0.45">
       <c r="B2" t="s">
         <v>2</v>
       </c>
@@ -1383,7 +1384,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="3" spans="1:15" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:15" ht="17.5" thickBot="1" x14ac:dyDescent="0.5">
       <c r="B3" s="1" t="s">
         <v>4</v>
       </c>
@@ -1392,7 +1393,7 @@
       </c>
       <c r="D3" s="1"/>
     </row>
-    <row r="4" spans="1:15" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:15" ht="17.5" thickBot="1" x14ac:dyDescent="0.5">
       <c r="B4" s="18" t="s">
         <v>61</v>
       </c>
@@ -1400,7 +1401,7 @@
         <v>43565</v>
       </c>
     </row>
-    <row r="5" spans="1:15" ht="21" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="5" spans="1:15" ht="21.5" thickBot="1" x14ac:dyDescent="0.6">
       <c r="A5" s="6" t="s">
         <v>14</v>
       </c>
@@ -1413,7 +1414,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="6" spans="1:15" s="4" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:15" s="4" customFormat="1" x14ac:dyDescent="0.45">
       <c r="D6" s="3" t="s">
         <v>6</v>
       </c>
@@ -1451,7 +1452,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="7" spans="1:15" s="4" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:15" s="4" customFormat="1" x14ac:dyDescent="0.45">
       <c r="D7" s="3" t="s">
         <v>10</v>
       </c>
@@ -1489,7 +1490,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="8" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:15" x14ac:dyDescent="0.45">
       <c r="A8" s="27" t="s">
         <v>32</v>
       </c>
@@ -1510,7 +1511,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="9" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:15" x14ac:dyDescent="0.45">
       <c r="A9" s="27" t="s">
         <v>33</v>
       </c>
@@ -1547,7 +1548,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="10" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:15" x14ac:dyDescent="0.45">
       <c r="A10" s="27" t="s">
         <v>34</v>
       </c>
@@ -1562,7 +1563,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="11" spans="1:15" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:15" ht="17.5" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A11" s="25" t="s">
         <v>35</v>
       </c>
@@ -1589,7 +1590,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="12" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:15" x14ac:dyDescent="0.45">
       <c r="A12" s="27" t="s">
         <v>37</v>
       </c>
@@ -1612,8 +1613,8 @@
       <c r="I12" t="s">
         <v>64</v>
       </c>
-      <c r="J12" t="s">
-        <v>70</v>
+      <c r="J12" s="17" t="s">
+        <v>84</v>
       </c>
       <c r="K12" t="s">
         <v>73</v>
@@ -1628,7 +1629,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="13" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:15" x14ac:dyDescent="0.45">
       <c r="A13" s="11"/>
       <c r="B13" s="12"/>
       <c r="D13" t="s">
@@ -1638,10 +1639,10 @@
         <v>45</v>
       </c>
       <c r="I13" s="23"/>
-      <c r="J13" t="s">
-        <v>71</v>
-      </c>
-      <c r="K13" t="s">
+      <c r="J13" s="17" t="s">
+        <v>85</v>
+      </c>
+      <c r="K13" s="29" t="s">
         <v>74</v>
       </c>
       <c r="L13" s="17" t="s">
@@ -1651,24 +1652,24 @@
         <v>88</v>
       </c>
     </row>
-    <row r="14" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:15" x14ac:dyDescent="0.45">
       <c r="A14" s="11"/>
       <c r="B14" s="12"/>
       <c r="D14" t="s">
         <v>40</v>
       </c>
       <c r="I14" s="23"/>
-      <c r="J14" t="s">
-        <v>72</v>
-      </c>
       <c r="K14" t="s">
         <v>75</v>
       </c>
+      <c r="L14" t="s">
+        <v>70</v>
+      </c>
       <c r="M14" s="21" t="s">
         <v>89</v>
       </c>
     </row>
-    <row r="15" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:15" x14ac:dyDescent="0.45">
       <c r="A15" s="11"/>
       <c r="B15" s="12"/>
       <c r="D15" t="s">
@@ -1678,12 +1679,12 @@
       <c r="K15" t="s">
         <v>76</v>
       </c>
-      <c r="L15" s="17" t="s">
-        <v>84</v>
+      <c r="L15" t="s">
+        <v>71</v>
       </c>
       <c r="M15" s="22"/>
     </row>
-    <row r="16" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:15" x14ac:dyDescent="0.45">
       <c r="A16" s="11"/>
       <c r="B16" s="12"/>
       <c r="D16" t="s">
@@ -1693,22 +1694,19 @@
       <c r="K16" t="s">
         <v>77</v>
       </c>
-      <c r="L16" s="17" t="s">
-        <v>85</v>
-      </c>
-    </row>
-    <row r="17" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="L16" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="17" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A17" s="11"/>
       <c r="B17" s="12"/>
       <c r="I17" s="23"/>
-      <c r="K17" t="s">
+      <c r="K17" s="29" t="s">
         <v>78</v>
       </c>
-      <c r="L17" s="17" t="s">
-        <v>86</v>
-      </c>
-    </row>
-    <row r="18" spans="1:12" x14ac:dyDescent="0.3">
+    </row>
+    <row r="18" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A18" s="11"/>
       <c r="B18" s="12"/>
       <c r="I18" s="23"/>
@@ -1716,7 +1714,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="19" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A19" s="11"/>
       <c r="B19" s="12"/>
       <c r="I19" s="23"/>
@@ -1724,22 +1722,25 @@
         <v>80</v>
       </c>
     </row>
-    <row r="20" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A20" s="11"/>
       <c r="B20" s="12"/>
       <c r="I20" s="23"/>
-    </row>
-    <row r="21" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="K20" s="17" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="21" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A21" s="11"/>
       <c r="B21" s="12"/>
       <c r="I21" s="23"/>
     </row>
-    <row r="22" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A22" s="11"/>
       <c r="B22" s="12"/>
       <c r="I22" s="23"/>
     </row>
-    <row r="23" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A23" s="11"/>
       <c r="B23" s="12"/>
       <c r="F23" t="s">
@@ -1749,28 +1750,28 @@
         <v>91</v>
       </c>
     </row>
-    <row r="24" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A24" s="11"/>
       <c r="B24" s="12"/>
       <c r="I24" t="s">
         <v>65</v>
       </c>
     </row>
-    <row r="25" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A25" s="11"/>
       <c r="B25" s="12"/>
       <c r="I25" t="s">
         <v>66</v>
       </c>
     </row>
-    <row r="26" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A26" s="11"/>
       <c r="B26" s="12"/>
       <c r="I26" t="s">
         <v>67</v>
       </c>
     </row>
-    <row r="27" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A27" s="11"/>
       <c r="B27" s="12"/>
       <c r="H27" t="s">
@@ -1780,7 +1781,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="28" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A28" s="11"/>
       <c r="B28" s="12"/>
       <c r="H28" t="s">
@@ -1790,7 +1791,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="29" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A29" s="11"/>
       <c r="B29" s="12"/>
       <c r="H29" t="s">
@@ -1800,78 +1801,78 @@
         <v>83</v>
       </c>
     </row>
-    <row r="30" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A30" s="11"/>
       <c r="B30" s="12"/>
     </row>
-    <row r="31" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A31" s="11"/>
       <c r="B31" s="12"/>
     </row>
-    <row r="32" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A32" s="11"/>
       <c r="B32" s="12"/>
     </row>
-    <row r="33" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A33" s="11"/>
       <c r="B33" s="12"/>
       <c r="G33" t="s">
         <v>38</v>
       </c>
     </row>
-    <row r="34" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A34" s="11"/>
       <c r="B34" s="12"/>
       <c r="G34" t="s">
         <v>51</v>
       </c>
     </row>
-    <row r="35" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A35" s="11"/>
       <c r="B35" s="12"/>
       <c r="G35" t="s">
         <v>52</v>
       </c>
     </row>
-    <row r="36" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A36" s="11"/>
       <c r="B36" s="12"/>
       <c r="G36" t="s">
         <v>53</v>
       </c>
     </row>
-    <row r="37" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A37" s="11"/>
       <c r="B37" s="12"/>
     </row>
-    <row r="38" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A38" s="11"/>
       <c r="B38" s="12"/>
     </row>
-    <row r="39" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A39" s="9"/>
       <c r="B39" s="10"/>
     </row>
-    <row r="42" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A42" s="24"/>
       <c r="B42" s="24"/>
     </row>
-    <row r="43" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A43" s="24"/>
       <c r="B43" s="24"/>
     </row>
-    <row r="44" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A44" s="24"/>
       <c r="B44" s="24"/>
     </row>
-    <row r="45" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="45" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A45" s="24"/>
       <c r="B45" s="24"/>
       <c r="G45" t="s">
         <v>54</v>
       </c>
     </row>
-    <row r="46" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="46" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A46" s="24"/>
       <c r="B46" s="24"/>
       <c r="F46" t="s">
@@ -1881,38 +1882,38 @@
         <v>55</v>
       </c>
     </row>
-    <row r="50" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="50" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A50" s="24"/>
       <c r="B50" s="24"/>
     </row>
-    <row r="51" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="51" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A51" s="24"/>
       <c r="B51" s="24"/>
     </row>
-    <row r="52" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="52" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A52" s="24"/>
       <c r="B52" s="24"/>
     </row>
-    <row r="53" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="53" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A53" s="24"/>
       <c r="B53" s="24"/>
     </row>
-    <row r="54" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="54" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A54" s="24"/>
       <c r="B54" s="24"/>
       <c r="G54" t="s">
         <v>56</v>
       </c>
     </row>
-    <row r="61" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="61" spans="1:7" x14ac:dyDescent="0.45">
       <c r="F61" t="s">
         <v>49</v>
       </c>
     </row>
-    <row r="67" spans="4:4" ht="21" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="67" spans="4:4" ht="21.5" thickBot="1" x14ac:dyDescent="0.6">
       <c r="D67" s="2"/>
     </row>
-    <row r="68" spans="4:4" ht="17.25" thickTop="1" x14ac:dyDescent="0.3"/>
+    <row r="68" spans="4:4" ht="17.5" thickTop="1" x14ac:dyDescent="0.45"/>
   </sheetData>
   <mergeCells count="15">
     <mergeCell ref="A11:B11"/>

--- a/0. document/2. 보고서/6차 보고서_마일스톤 상세.xlsx
+++ b/0. document/2. 보고서/6차 보고서_마일스톤 상세.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="21425"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{819844E6-EE44-4956-B89B-718C5EB0CABF}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3E89ACF2-4313-452D-AE3F-DB3D1349AC07}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="490" windowWidth="19420" windowHeight="12420" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -574,7 +574,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="30">
+  <cellXfs count="31">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
@@ -618,6 +618,7 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -630,7 +631,7 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="20% - 강조색2" xfId="1" builtinId="34"/>
@@ -1358,7 +1359,7 @@
   <dimension ref="A1:O68"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="I1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="K24" sqref="K24"/>
+      <selection activeCell="K19" sqref="K19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="17" x14ac:dyDescent="0.45"/>
@@ -1491,10 +1492,10 @@
       </c>
     </row>
     <row r="8" spans="1:15" x14ac:dyDescent="0.45">
-      <c r="A8" s="27" t="s">
+      <c r="A8" s="28" t="s">
         <v>32</v>
       </c>
-      <c r="B8" s="28"/>
+      <c r="B8" s="29"/>
       <c r="D8" s="5" t="s">
         <v>31</v>
       </c>
@@ -1512,10 +1513,10 @@
       </c>
     </row>
     <row r="9" spans="1:15" x14ac:dyDescent="0.45">
-      <c r="A9" s="27" t="s">
+      <c r="A9" s="28" t="s">
         <v>33</v>
       </c>
-      <c r="B9" s="28"/>
+      <c r="B9" s="29"/>
       <c r="D9" s="5"/>
       <c r="E9" s="5" t="s">
         <v>31</v>
@@ -1549,10 +1550,10 @@
       </c>
     </row>
     <row r="10" spans="1:15" x14ac:dyDescent="0.45">
-      <c r="A10" s="27" t="s">
+      <c r="A10" s="28" t="s">
         <v>34</v>
       </c>
-      <c r="B10" s="28"/>
+      <c r="B10" s="29"/>
       <c r="M10" s="5" t="s">
         <v>31</v>
       </c>
@@ -1564,10 +1565,10 @@
       </c>
     </row>
     <row r="11" spans="1:15" ht="17.5" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="A11" s="25" t="s">
+      <c r="A11" s="26" t="s">
         <v>35</v>
       </c>
-      <c r="B11" s="26"/>
+      <c r="B11" s="27"/>
       <c r="C11" s="13"/>
       <c r="D11" s="13"/>
       <c r="E11" s="13"/>
@@ -1591,10 +1592,10 @@
       </c>
     </row>
     <row r="12" spans="1:15" x14ac:dyDescent="0.45">
-      <c r="A12" s="27" t="s">
+      <c r="A12" s="28" t="s">
         <v>37</v>
       </c>
-      <c r="B12" s="28"/>
+      <c r="B12" s="29"/>
       <c r="D12" t="s">
         <v>42</v>
       </c>
@@ -1642,7 +1643,7 @@
       <c r="J13" s="17" t="s">
         <v>85</v>
       </c>
-      <c r="K13" s="29" t="s">
+      <c r="K13" s="25" t="s">
         <v>74</v>
       </c>
       <c r="L13" s="17" t="s">
@@ -1702,7 +1703,7 @@
       <c r="A17" s="11"/>
       <c r="B17" s="12"/>
       <c r="I17" s="23"/>
-      <c r="K17" s="29" t="s">
+      <c r="K17" s="25" t="s">
         <v>78</v>
       </c>
     </row>
@@ -1726,7 +1727,7 @@
       <c r="A20" s="11"/>
       <c r="B20" s="12"/>
       <c r="I20" s="23"/>
-      <c r="K20" s="17" t="s">
+      <c r="K20" s="25" t="s">
         <v>86</v>
       </c>
     </row>
@@ -1734,6 +1735,7 @@
       <c r="A21" s="11"/>
       <c r="B21" s="12"/>
       <c r="I21" s="23"/>
+      <c r="K21" s="24"/>
     </row>
     <row r="22" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A22" s="11"/>
@@ -1854,27 +1856,27 @@
       <c r="B39" s="10"/>
     </row>
     <row r="42" spans="1:7" x14ac:dyDescent="0.45">
-      <c r="A42" s="24"/>
-      <c r="B42" s="24"/>
+      <c r="A42" s="30"/>
+      <c r="B42" s="30"/>
     </row>
     <row r="43" spans="1:7" x14ac:dyDescent="0.45">
-      <c r="A43" s="24"/>
-      <c r="B43" s="24"/>
+      <c r="A43" s="30"/>
+      <c r="B43" s="30"/>
     </row>
     <row r="44" spans="1:7" x14ac:dyDescent="0.45">
-      <c r="A44" s="24"/>
-      <c r="B44" s="24"/>
+      <c r="A44" s="30"/>
+      <c r="B44" s="30"/>
     </row>
     <row r="45" spans="1:7" x14ac:dyDescent="0.45">
-      <c r="A45" s="24"/>
-      <c r="B45" s="24"/>
+      <c r="A45" s="30"/>
+      <c r="B45" s="30"/>
       <c r="G45" t="s">
         <v>54</v>
       </c>
     </row>
     <row r="46" spans="1:7" x14ac:dyDescent="0.45">
-      <c r="A46" s="24"/>
-      <c r="B46" s="24"/>
+      <c r="A46" s="30"/>
+      <c r="B46" s="30"/>
       <c r="F46" t="s">
         <v>48</v>
       </c>
@@ -1883,24 +1885,24 @@
       </c>
     </row>
     <row r="50" spans="1:7" x14ac:dyDescent="0.45">
-      <c r="A50" s="24"/>
-      <c r="B50" s="24"/>
+      <c r="A50" s="30"/>
+      <c r="B50" s="30"/>
     </row>
     <row r="51" spans="1:7" x14ac:dyDescent="0.45">
-      <c r="A51" s="24"/>
-      <c r="B51" s="24"/>
+      <c r="A51" s="30"/>
+      <c r="B51" s="30"/>
     </row>
     <row r="52" spans="1:7" x14ac:dyDescent="0.45">
-      <c r="A52" s="24"/>
-      <c r="B52" s="24"/>
+      <c r="A52" s="30"/>
+      <c r="B52" s="30"/>
     </row>
     <row r="53" spans="1:7" x14ac:dyDescent="0.45">
-      <c r="A53" s="24"/>
-      <c r="B53" s="24"/>
+      <c r="A53" s="30"/>
+      <c r="B53" s="30"/>
     </row>
     <row r="54" spans="1:7" x14ac:dyDescent="0.45">
-      <c r="A54" s="24"/>
-      <c r="B54" s="24"/>
+      <c r="A54" s="30"/>
+      <c r="B54" s="30"/>
       <c r="G54" t="s">
         <v>56</v>
       </c>
@@ -1916,6 +1918,12 @@
     <row r="68" spans="4:4" ht="17.5" thickTop="1" x14ac:dyDescent="0.45"/>
   </sheetData>
   <mergeCells count="15">
+    <mergeCell ref="A54:B54"/>
+    <mergeCell ref="A52:B52"/>
+    <mergeCell ref="A50:B50"/>
+    <mergeCell ref="A53:B53"/>
+    <mergeCell ref="A45:B45"/>
+    <mergeCell ref="A51:B51"/>
     <mergeCell ref="A11:B11"/>
     <mergeCell ref="A12:B12"/>
     <mergeCell ref="A46:B46"/>
@@ -1925,12 +1933,6 @@
     <mergeCell ref="A43:B43"/>
     <mergeCell ref="A10:B10"/>
     <mergeCell ref="A44:B44"/>
-    <mergeCell ref="A54:B54"/>
-    <mergeCell ref="A52:B52"/>
-    <mergeCell ref="A50:B50"/>
-    <mergeCell ref="A53:B53"/>
-    <mergeCell ref="A45:B45"/>
-    <mergeCell ref="A51:B51"/>
   </mergeCells>
   <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/0. document/2. 보고서/6차 보고서_마일스톤 상세.xlsx
+++ b/0. document/2. 보고서/6차 보고서_마일스톤 상세.xlsx
@@ -1,9 +1,9 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="21425"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="21601"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3E89ACF2-4313-452D-AE3F-DB3D1349AC07}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1F58FB8A-DA9C-405A-A706-58E05D9AA554}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="490" windowWidth="19420" windowHeight="12420" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -338,10 +338,6 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>채팅 socket.io 구현</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
     <t>그룹메뉴-필터</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
@@ -387,6 +383,10 @@
   </si>
   <si>
     <t>친구 추가/취소</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>채팅 socket.io 공부</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
@@ -574,7 +574,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="31">
+  <cellXfs count="30">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
@@ -613,12 +613,10 @@
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -631,7 +629,6 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="20% - 강조색2" xfId="1" builtinId="34"/>
@@ -1358,8 +1355,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:O68"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="I1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="K19" sqref="K19"/>
+    <sheetView tabSelected="1" topLeftCell="L1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="M21" sqref="M21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="17" x14ac:dyDescent="0.45"/>
@@ -1615,19 +1612,22 @@
         <v>64</v>
       </c>
       <c r="J12" s="17" t="s">
-        <v>84</v>
-      </c>
-      <c r="K12" t="s">
-        <v>73</v>
+        <v>83</v>
+      </c>
+      <c r="K12" s="24" t="s">
+        <v>85</v>
       </c>
       <c r="L12" t="s">
-        <v>81</v>
-      </c>
-      <c r="M12" s="21" t="s">
-        <v>87</v>
-      </c>
-      <c r="N12" s="20" t="s">
-        <v>90</v>
+        <v>91</v>
+      </c>
+      <c r="M12" t="s">
+        <v>80</v>
+      </c>
+      <c r="N12" s="21" t="s">
+        <v>86</v>
+      </c>
+      <c r="O12" s="20" t="s">
+        <v>89</v>
       </c>
     </row>
     <row r="13" spans="1:15" x14ac:dyDescent="0.45">
@@ -1639,18 +1639,18 @@
       <c r="E13" t="s">
         <v>45</v>
       </c>
-      <c r="I13" s="23"/>
+      <c r="I13" s="22"/>
       <c r="J13" s="17" t="s">
-        <v>85</v>
-      </c>
-      <c r="K13" s="25" t="s">
+        <v>84</v>
+      </c>
+      <c r="K13" s="24" t="s">
         <v>74</v>
       </c>
-      <c r="L13" s="17" t="s">
-        <v>82</v>
-      </c>
-      <c r="M13" s="21" t="s">
-        <v>88</v>
+      <c r="M13" s="17" t="s">
+        <v>81</v>
+      </c>
+      <c r="N13" s="21" t="s">
+        <v>87</v>
       </c>
     </row>
     <row r="14" spans="1:15" x14ac:dyDescent="0.45">
@@ -1659,15 +1659,15 @@
       <c r="D14" t="s">
         <v>40</v>
       </c>
-      <c r="I14" s="23"/>
-      <c r="K14" t="s">
-        <v>75</v>
-      </c>
-      <c r="L14" t="s">
+      <c r="I14" s="22"/>
+      <c r="K14" s="24" t="s">
+        <v>78</v>
+      </c>
+      <c r="M14" t="s">
         <v>70</v>
       </c>
-      <c r="M14" s="21" t="s">
-        <v>89</v>
+      <c r="N14" s="21" t="s">
+        <v>88</v>
       </c>
     </row>
     <row r="15" spans="1:15" x14ac:dyDescent="0.45">
@@ -1676,14 +1676,10 @@
       <c r="D15" t="s">
         <v>39</v>
       </c>
-      <c r="I15" s="23"/>
-      <c r="K15" t="s">
-        <v>76</v>
-      </c>
-      <c r="L15" t="s">
+      <c r="I15" s="22"/>
+      <c r="M15" t="s">
         <v>71</v>
       </c>
-      <c r="M15" s="22"/>
     </row>
     <row r="16" spans="1:15" x14ac:dyDescent="0.45">
       <c r="A16" s="11"/>
@@ -1691,89 +1687,89 @@
       <c r="D16" t="s">
         <v>43</v>
       </c>
-      <c r="I16" s="23"/>
-      <c r="K16" t="s">
-        <v>77</v>
-      </c>
-      <c r="L16" t="s">
+      <c r="I16" s="22"/>
+      <c r="M16" t="s">
         <v>72</v>
       </c>
     </row>
-    <row r="17" spans="1:11" x14ac:dyDescent="0.45">
+    <row r="17" spans="1:13" x14ac:dyDescent="0.45">
       <c r="A17" s="11"/>
       <c r="B17" s="12"/>
-      <c r="I17" s="23"/>
-      <c r="K17" s="25" t="s">
-        <v>78</v>
-      </c>
-    </row>
-    <row r="18" spans="1:11" x14ac:dyDescent="0.45">
+      <c r="I17" s="22"/>
+      <c r="M17" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="18" spans="1:13" x14ac:dyDescent="0.45">
       <c r="A18" s="11"/>
       <c r="B18" s="12"/>
-      <c r="I18" s="23"/>
-      <c r="K18" t="s">
-        <v>79</v>
-      </c>
-    </row>
-    <row r="19" spans="1:11" x14ac:dyDescent="0.45">
+      <c r="I18" s="22"/>
+      <c r="M18" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="19" spans="1:13" x14ac:dyDescent="0.45">
       <c r="A19" s="11"/>
       <c r="B19" s="12"/>
-      <c r="I19" s="23"/>
-      <c r="K19" t="s">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="20" spans="1:11" x14ac:dyDescent="0.45">
+      <c r="I19" s="22"/>
+      <c r="M19" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="20" spans="1:13" x14ac:dyDescent="0.45">
       <c r="A20" s="11"/>
       <c r="B20" s="12"/>
-      <c r="I20" s="23"/>
-      <c r="K20" s="25" t="s">
-        <v>86</v>
-      </c>
-    </row>
-    <row r="21" spans="1:11" x14ac:dyDescent="0.45">
+      <c r="I20" s="22"/>
+      <c r="M20" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="21" spans="1:13" x14ac:dyDescent="0.45">
       <c r="A21" s="11"/>
       <c r="B21" s="12"/>
-      <c r="I21" s="23"/>
-      <c r="K21" s="24"/>
-    </row>
-    <row r="22" spans="1:11" x14ac:dyDescent="0.45">
+      <c r="I21" s="22"/>
+      <c r="K21" s="23"/>
+      <c r="M21" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="22" spans="1:13" x14ac:dyDescent="0.45">
       <c r="A22" s="11"/>
       <c r="B22" s="12"/>
-      <c r="I22" s="23"/>
-    </row>
-    <row r="23" spans="1:11" x14ac:dyDescent="0.45">
+      <c r="I22" s="22"/>
+    </row>
+    <row r="23" spans="1:13" x14ac:dyDescent="0.45">
       <c r="A23" s="11"/>
       <c r="B23" s="12"/>
       <c r="F23" t="s">
         <v>47</v>
       </c>
       <c r="I23" t="s">
-        <v>91</v>
-      </c>
-    </row>
-    <row r="24" spans="1:11" x14ac:dyDescent="0.45">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="24" spans="1:13" x14ac:dyDescent="0.45">
       <c r="A24" s="11"/>
       <c r="B24" s="12"/>
       <c r="I24" t="s">
         <v>65</v>
       </c>
     </row>
-    <row r="25" spans="1:11" x14ac:dyDescent="0.45">
+    <row r="25" spans="1:13" x14ac:dyDescent="0.45">
       <c r="A25" s="11"/>
       <c r="B25" s="12"/>
       <c r="I25" t="s">
         <v>66</v>
       </c>
     </row>
-    <row r="26" spans="1:11" x14ac:dyDescent="0.45">
+    <row r="26" spans="1:13" x14ac:dyDescent="0.45">
       <c r="A26" s="11"/>
       <c r="B26" s="12"/>
       <c r="I26" t="s">
         <v>67</v>
       </c>
     </row>
-    <row r="27" spans="1:11" x14ac:dyDescent="0.45">
+    <row r="27" spans="1:13" x14ac:dyDescent="0.45">
       <c r="A27" s="11"/>
       <c r="B27" s="12"/>
       <c r="H27" t="s">
@@ -1783,7 +1779,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="28" spans="1:11" x14ac:dyDescent="0.45">
+    <row r="28" spans="1:13" x14ac:dyDescent="0.45">
       <c r="A28" s="11"/>
       <c r="B28" s="12"/>
       <c r="H28" t="s">
@@ -1793,25 +1789,25 @@
         <v>69</v>
       </c>
     </row>
-    <row r="29" spans="1:11" x14ac:dyDescent="0.45">
+    <row r="29" spans="1:13" x14ac:dyDescent="0.45">
       <c r="A29" s="11"/>
       <c r="B29" s="12"/>
       <c r="H29" t="s">
         <v>60</v>
       </c>
       <c r="I29" t="s">
-        <v>83</v>
-      </c>
-    </row>
-    <row r="30" spans="1:11" x14ac:dyDescent="0.45">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="30" spans="1:13" x14ac:dyDescent="0.45">
       <c r="A30" s="11"/>
       <c r="B30" s="12"/>
     </row>
-    <row r="31" spans="1:11" x14ac:dyDescent="0.45">
+    <row r="31" spans="1:13" x14ac:dyDescent="0.45">
       <c r="A31" s="11"/>
       <c r="B31" s="12"/>
     </row>
-    <row r="32" spans="1:11" x14ac:dyDescent="0.45">
+    <row r="32" spans="1:13" x14ac:dyDescent="0.45">
       <c r="A32" s="11"/>
       <c r="B32" s="12"/>
     </row>
@@ -1856,27 +1852,27 @@
       <c r="B39" s="10"/>
     </row>
     <row r="42" spans="1:7" x14ac:dyDescent="0.45">
-      <c r="A42" s="30"/>
-      <c r="B42" s="30"/>
+      <c r="A42" s="25"/>
+      <c r="B42" s="25"/>
     </row>
     <row r="43" spans="1:7" x14ac:dyDescent="0.45">
-      <c r="A43" s="30"/>
-      <c r="B43" s="30"/>
+      <c r="A43" s="25"/>
+      <c r="B43" s="25"/>
     </row>
     <row r="44" spans="1:7" x14ac:dyDescent="0.45">
-      <c r="A44" s="30"/>
-      <c r="B44" s="30"/>
+      <c r="A44" s="25"/>
+      <c r="B44" s="25"/>
     </row>
     <row r="45" spans="1:7" x14ac:dyDescent="0.45">
-      <c r="A45" s="30"/>
-      <c r="B45" s="30"/>
+      <c r="A45" s="25"/>
+      <c r="B45" s="25"/>
       <c r="G45" t="s">
         <v>54</v>
       </c>
     </row>
     <row r="46" spans="1:7" x14ac:dyDescent="0.45">
-      <c r="A46" s="30"/>
-      <c r="B46" s="30"/>
+      <c r="A46" s="25"/>
+      <c r="B46" s="25"/>
       <c r="F46" t="s">
         <v>48</v>
       </c>
@@ -1885,24 +1881,24 @@
       </c>
     </row>
     <row r="50" spans="1:7" x14ac:dyDescent="0.45">
-      <c r="A50" s="30"/>
-      <c r="B50" s="30"/>
+      <c r="A50" s="25"/>
+      <c r="B50" s="25"/>
     </row>
     <row r="51" spans="1:7" x14ac:dyDescent="0.45">
-      <c r="A51" s="30"/>
-      <c r="B51" s="30"/>
+      <c r="A51" s="25"/>
+      <c r="B51" s="25"/>
     </row>
     <row r="52" spans="1:7" x14ac:dyDescent="0.45">
-      <c r="A52" s="30"/>
-      <c r="B52" s="30"/>
+      <c r="A52" s="25"/>
+      <c r="B52" s="25"/>
     </row>
     <row r="53" spans="1:7" x14ac:dyDescent="0.45">
-      <c r="A53" s="30"/>
-      <c r="B53" s="30"/>
+      <c r="A53" s="25"/>
+      <c r="B53" s="25"/>
     </row>
     <row r="54" spans="1:7" x14ac:dyDescent="0.45">
-      <c r="A54" s="30"/>
-      <c r="B54" s="30"/>
+      <c r="A54" s="25"/>
+      <c r="B54" s="25"/>
       <c r="G54" t="s">
         <v>56</v>
       </c>
@@ -1918,12 +1914,6 @@
     <row r="68" spans="4:4" ht="17.5" thickTop="1" x14ac:dyDescent="0.45"/>
   </sheetData>
   <mergeCells count="15">
-    <mergeCell ref="A54:B54"/>
-    <mergeCell ref="A52:B52"/>
-    <mergeCell ref="A50:B50"/>
-    <mergeCell ref="A53:B53"/>
-    <mergeCell ref="A45:B45"/>
-    <mergeCell ref="A51:B51"/>
     <mergeCell ref="A11:B11"/>
     <mergeCell ref="A12:B12"/>
     <mergeCell ref="A46:B46"/>
@@ -1933,6 +1923,12 @@
     <mergeCell ref="A43:B43"/>
     <mergeCell ref="A10:B10"/>
     <mergeCell ref="A44:B44"/>
+    <mergeCell ref="A54:B54"/>
+    <mergeCell ref="A52:B52"/>
+    <mergeCell ref="A50:B50"/>
+    <mergeCell ref="A53:B53"/>
+    <mergeCell ref="A45:B45"/>
+    <mergeCell ref="A51:B51"/>
   </mergeCells>
   <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/0. document/2. 보고서/6차 보고서_마일스톤 상세.xlsx
+++ b/0. document/2. 보고서/6차 보고서_마일스톤 상세.xlsx
@@ -1,11 +1,11 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="21601"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="20730"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1F58FB8A-DA9C-405A-A706-58E05D9AA554}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CCEF2DBB-5B2C-41D1-9FF3-4756C1411E49}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="490" windowWidth="19420" windowHeight="12420" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-105" yWindow="1095" windowWidth="19425" windowHeight="12420" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="112" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="113" uniqueCount="93">
   <si>
     <t>팀</t>
     <phoneticPr fontId="2" type="noConversion"/>
@@ -387,6 +387,10 @@
   </si>
   <si>
     <t>채팅 socket.io 공부</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>socket.io 채팅 기초 기능 구현</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
@@ -574,7 +578,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="30">
+  <cellXfs count="31">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
@@ -629,6 +633,7 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="20% - 강조색2" xfId="1" builtinId="34"/>
@@ -1355,18 +1360,18 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:O68"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="L1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="M21" sqref="M21"/>
+    <sheetView tabSelected="1" topLeftCell="J1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="M13" sqref="M13"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="17" x14ac:dyDescent="0.45"/>
+  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="3" max="3" width="17.58203125" bestFit="1" customWidth="1"/>
-    <col min="4" max="15" width="40.58203125" customWidth="1"/>
-    <col min="17" max="17" width="40.58203125" customWidth="1"/>
+    <col min="3" max="3" width="17.625" bestFit="1" customWidth="1"/>
+    <col min="4" max="15" width="40.625" customWidth="1"/>
+    <col min="17" max="17" width="40.625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:15" x14ac:dyDescent="0.45">
+    <row r="1" spans="1:15" x14ac:dyDescent="0.3">
       <c r="B1" t="s">
         <v>0</v>
       </c>
@@ -1374,7 +1379,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="2" spans="1:15" x14ac:dyDescent="0.45">
+    <row r="2" spans="1:15" x14ac:dyDescent="0.3">
       <c r="B2" t="s">
         <v>2</v>
       </c>
@@ -1382,7 +1387,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="3" spans="1:15" ht="17.5" thickBot="1" x14ac:dyDescent="0.5">
+    <row r="3" spans="1:15" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B3" s="1" t="s">
         <v>4</v>
       </c>
@@ -1391,7 +1396,7 @@
       </c>
       <c r="D3" s="1"/>
     </row>
-    <row r="4" spans="1:15" ht="17.5" thickBot="1" x14ac:dyDescent="0.5">
+    <row r="4" spans="1:15" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B4" s="18" t="s">
         <v>61</v>
       </c>
@@ -1399,7 +1404,7 @@
         <v>43565</v>
       </c>
     </row>
-    <row r="5" spans="1:15" ht="21.5" thickBot="1" x14ac:dyDescent="0.6">
+    <row r="5" spans="1:15" ht="21" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A5" s="6" t="s">
         <v>14</v>
       </c>
@@ -1412,7 +1417,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="6" spans="1:15" s="4" customFormat="1" x14ac:dyDescent="0.45">
+    <row r="6" spans="1:15" s="4" customFormat="1" x14ac:dyDescent="0.3">
       <c r="D6" s="3" t="s">
         <v>6</v>
       </c>
@@ -1450,7 +1455,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="7" spans="1:15" s="4" customFormat="1" x14ac:dyDescent="0.45">
+    <row r="7" spans="1:15" s="4" customFormat="1" x14ac:dyDescent="0.3">
       <c r="D7" s="3" t="s">
         <v>10</v>
       </c>
@@ -1488,7 +1493,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="8" spans="1:15" x14ac:dyDescent="0.45">
+    <row r="8" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A8" s="28" t="s">
         <v>32</v>
       </c>
@@ -1509,7 +1514,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="9" spans="1:15" x14ac:dyDescent="0.45">
+    <row r="9" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A9" s="28" t="s">
         <v>33</v>
       </c>
@@ -1546,7 +1551,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="10" spans="1:15" x14ac:dyDescent="0.45">
+    <row r="10" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A10" s="28" t="s">
         <v>34</v>
       </c>
@@ -1561,7 +1566,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="11" spans="1:15" ht="17.5" thickBot="1" x14ac:dyDescent="0.5">
+    <row r="11" spans="1:15" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A11" s="26" t="s">
         <v>35</v>
       </c>
@@ -1588,7 +1593,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="12" spans="1:15" x14ac:dyDescent="0.45">
+    <row r="12" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A12" s="28" t="s">
         <v>37</v>
       </c>
@@ -1620,8 +1625,8 @@
       <c r="L12" t="s">
         <v>91</v>
       </c>
-      <c r="M12" t="s">
-        <v>80</v>
+      <c r="M12" s="25" t="s">
+        <v>92</v>
       </c>
       <c r="N12" s="21" t="s">
         <v>86</v>
@@ -1630,7 +1635,7 @@
         <v>89</v>
       </c>
     </row>
-    <row r="13" spans="1:15" x14ac:dyDescent="0.45">
+    <row r="13" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A13" s="11"/>
       <c r="B13" s="12"/>
       <c r="D13" t="s">
@@ -1646,14 +1651,11 @@
       <c r="K13" s="24" t="s">
         <v>74</v>
       </c>
-      <c r="M13" s="17" t="s">
-        <v>81</v>
-      </c>
       <c r="N13" s="21" t="s">
         <v>87</v>
       </c>
     </row>
-    <row r="14" spans="1:15" x14ac:dyDescent="0.45">
+    <row r="14" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A14" s="11"/>
       <c r="B14" s="12"/>
       <c r="D14" t="s">
@@ -1663,25 +1665,19 @@
       <c r="K14" s="24" t="s">
         <v>78</v>
       </c>
-      <c r="M14" t="s">
-        <v>70</v>
-      </c>
       <c r="N14" s="21" t="s">
         <v>88</v>
       </c>
     </row>
-    <row r="15" spans="1:15" x14ac:dyDescent="0.45">
+    <row r="15" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A15" s="11"/>
       <c r="B15" s="12"/>
       <c r="D15" t="s">
         <v>39</v>
       </c>
       <c r="I15" s="22"/>
-      <c r="M15" t="s">
-        <v>71</v>
-      </c>
-    </row>
-    <row r="16" spans="1:15" x14ac:dyDescent="0.45">
+    </row>
+    <row r="16" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A16" s="11"/>
       <c r="B16" s="12"/>
       <c r="D16" t="s">
@@ -1689,56 +1685,59 @@
       </c>
       <c r="I16" s="22"/>
       <c r="M16" t="s">
-        <v>72</v>
-      </c>
-    </row>
-    <row r="17" spans="1:13" x14ac:dyDescent="0.45">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="17" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A17" s="11"/>
       <c r="B17" s="12"/>
       <c r="I17" s="22"/>
-      <c r="M17" t="s">
-        <v>73</v>
-      </c>
-    </row>
-    <row r="18" spans="1:13" x14ac:dyDescent="0.45">
+      <c r="M17" s="17" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="18" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A18" s="11"/>
       <c r="B18" s="12"/>
       <c r="I18" s="22"/>
       <c r="M18" t="s">
-        <v>75</v>
-      </c>
-    </row>
-    <row r="19" spans="1:13" x14ac:dyDescent="0.45">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="19" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A19" s="11"/>
       <c r="B19" s="12"/>
       <c r="I19" s="22"/>
       <c r="M19" t="s">
-        <v>76</v>
-      </c>
-    </row>
-    <row r="20" spans="1:13" x14ac:dyDescent="0.45">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="20" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A20" s="11"/>
       <c r="B20" s="12"/>
       <c r="I20" s="22"/>
       <c r="M20" t="s">
-        <v>77</v>
-      </c>
-    </row>
-    <row r="21" spans="1:13" x14ac:dyDescent="0.45">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="21" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A21" s="11"/>
       <c r="B21" s="12"/>
       <c r="I21" s="22"/>
       <c r="K21" s="23"/>
       <c r="M21" t="s">
-        <v>79</v>
-      </c>
-    </row>
-    <row r="22" spans="1:13" x14ac:dyDescent="0.45">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="22" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A22" s="11"/>
       <c r="B22" s="12"/>
       <c r="I22" s="22"/>
-    </row>
-    <row r="23" spans="1:13" x14ac:dyDescent="0.45">
+      <c r="M22" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="23" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A23" s="11"/>
       <c r="B23" s="12"/>
       <c r="F23" t="s">
@@ -1747,29 +1746,38 @@
       <c r="I23" t="s">
         <v>90</v>
       </c>
-    </row>
-    <row r="24" spans="1:13" x14ac:dyDescent="0.45">
+      <c r="M23" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="24" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A24" s="11"/>
       <c r="B24" s="12"/>
       <c r="I24" t="s">
         <v>65</v>
       </c>
-    </row>
-    <row r="25" spans="1:13" x14ac:dyDescent="0.45">
+      <c r="M24" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="25" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A25" s="11"/>
       <c r="B25" s="12"/>
       <c r="I25" t="s">
         <v>66</v>
       </c>
-    </row>
-    <row r="26" spans="1:13" x14ac:dyDescent="0.45">
+      <c r="M25" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="26" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A26" s="11"/>
       <c r="B26" s="12"/>
       <c r="I26" t="s">
         <v>67</v>
       </c>
     </row>
-    <row r="27" spans="1:13" x14ac:dyDescent="0.45">
+    <row r="27" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A27" s="11"/>
       <c r="B27" s="12"/>
       <c r="H27" t="s">
@@ -1779,7 +1787,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="28" spans="1:13" x14ac:dyDescent="0.45">
+    <row r="28" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A28" s="11"/>
       <c r="B28" s="12"/>
       <c r="H28" t="s">
@@ -1789,7 +1797,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="29" spans="1:13" x14ac:dyDescent="0.45">
+    <row r="29" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A29" s="11"/>
       <c r="B29" s="12"/>
       <c r="H29" t="s">
@@ -1799,80 +1807,80 @@
         <v>82</v>
       </c>
     </row>
-    <row r="30" spans="1:13" x14ac:dyDescent="0.45">
+    <row r="30" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A30" s="11"/>
       <c r="B30" s="12"/>
     </row>
-    <row r="31" spans="1:13" x14ac:dyDescent="0.45">
+    <row r="31" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A31" s="11"/>
       <c r="B31" s="12"/>
     </row>
-    <row r="32" spans="1:13" x14ac:dyDescent="0.45">
+    <row r="32" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A32" s="11"/>
       <c r="B32" s="12"/>
     </row>
-    <row r="33" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="33" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A33" s="11"/>
       <c r="B33" s="12"/>
       <c r="G33" t="s">
         <v>38</v>
       </c>
     </row>
-    <row r="34" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="34" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A34" s="11"/>
       <c r="B34" s="12"/>
       <c r="G34" t="s">
         <v>51</v>
       </c>
     </row>
-    <row r="35" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="35" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A35" s="11"/>
       <c r="B35" s="12"/>
       <c r="G35" t="s">
         <v>52</v>
       </c>
     </row>
-    <row r="36" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="36" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A36" s="11"/>
       <c r="B36" s="12"/>
       <c r="G36" t="s">
         <v>53</v>
       </c>
     </row>
-    <row r="37" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="37" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A37" s="11"/>
       <c r="B37" s="12"/>
     </row>
-    <row r="38" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="38" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A38" s="11"/>
       <c r="B38" s="12"/>
     </row>
-    <row r="39" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="39" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A39" s="9"/>
       <c r="B39" s="10"/>
     </row>
-    <row r="42" spans="1:7" x14ac:dyDescent="0.45">
-      <c r="A42" s="25"/>
-      <c r="B42" s="25"/>
-    </row>
-    <row r="43" spans="1:7" x14ac:dyDescent="0.45">
-      <c r="A43" s="25"/>
-      <c r="B43" s="25"/>
-    </row>
-    <row r="44" spans="1:7" x14ac:dyDescent="0.45">
-      <c r="A44" s="25"/>
-      <c r="B44" s="25"/>
-    </row>
-    <row r="45" spans="1:7" x14ac:dyDescent="0.45">
-      <c r="A45" s="25"/>
-      <c r="B45" s="25"/>
+    <row r="42" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A42" s="30"/>
+      <c r="B42" s="30"/>
+    </row>
+    <row r="43" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A43" s="30"/>
+      <c r="B43" s="30"/>
+    </row>
+    <row r="44" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A44" s="30"/>
+      <c r="B44" s="30"/>
+    </row>
+    <row r="45" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A45" s="30"/>
+      <c r="B45" s="30"/>
       <c r="G45" t="s">
         <v>54</v>
       </c>
     </row>
-    <row r="46" spans="1:7" x14ac:dyDescent="0.45">
-      <c r="A46" s="25"/>
-      <c r="B46" s="25"/>
+    <row r="46" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A46" s="30"/>
+      <c r="B46" s="30"/>
       <c r="F46" t="s">
         <v>48</v>
       </c>
@@ -1880,40 +1888,46 @@
         <v>55</v>
       </c>
     </row>
-    <row r="50" spans="1:7" x14ac:dyDescent="0.45">
-      <c r="A50" s="25"/>
-      <c r="B50" s="25"/>
-    </row>
-    <row r="51" spans="1:7" x14ac:dyDescent="0.45">
-      <c r="A51" s="25"/>
-      <c r="B51" s="25"/>
-    </row>
-    <row r="52" spans="1:7" x14ac:dyDescent="0.45">
-      <c r="A52" s="25"/>
-      <c r="B52" s="25"/>
-    </row>
-    <row r="53" spans="1:7" x14ac:dyDescent="0.45">
-      <c r="A53" s="25"/>
-      <c r="B53" s="25"/>
-    </row>
-    <row r="54" spans="1:7" x14ac:dyDescent="0.45">
-      <c r="A54" s="25"/>
-      <c r="B54" s="25"/>
+    <row r="50" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A50" s="30"/>
+      <c r="B50" s="30"/>
+    </row>
+    <row r="51" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A51" s="30"/>
+      <c r="B51" s="30"/>
+    </row>
+    <row r="52" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A52" s="30"/>
+      <c r="B52" s="30"/>
+    </row>
+    <row r="53" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A53" s="30"/>
+      <c r="B53" s="30"/>
+    </row>
+    <row r="54" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A54" s="30"/>
+      <c r="B54" s="30"/>
       <c r="G54" t="s">
         <v>56</v>
       </c>
     </row>
-    <row r="61" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="61" spans="1:7" x14ac:dyDescent="0.3">
       <c r="F61" t="s">
         <v>49</v>
       </c>
     </row>
-    <row r="67" spans="4:4" ht="21.5" thickBot="1" x14ac:dyDescent="0.6">
+    <row r="67" spans="4:4" ht="21" thickBot="1" x14ac:dyDescent="0.4">
       <c r="D67" s="2"/>
     </row>
-    <row r="68" spans="4:4" ht="17.5" thickTop="1" x14ac:dyDescent="0.45"/>
+    <row r="68" spans="4:4" ht="17.25" thickTop="1" x14ac:dyDescent="0.3"/>
   </sheetData>
   <mergeCells count="15">
+    <mergeCell ref="A54:B54"/>
+    <mergeCell ref="A52:B52"/>
+    <mergeCell ref="A50:B50"/>
+    <mergeCell ref="A53:B53"/>
+    <mergeCell ref="A45:B45"/>
+    <mergeCell ref="A51:B51"/>
     <mergeCell ref="A11:B11"/>
     <mergeCell ref="A12:B12"/>
     <mergeCell ref="A46:B46"/>
@@ -1923,12 +1937,6 @@
     <mergeCell ref="A43:B43"/>
     <mergeCell ref="A10:B10"/>
     <mergeCell ref="A44:B44"/>
-    <mergeCell ref="A54:B54"/>
-    <mergeCell ref="A52:B52"/>
-    <mergeCell ref="A50:B50"/>
-    <mergeCell ref="A53:B53"/>
-    <mergeCell ref="A45:B45"/>
-    <mergeCell ref="A51:B51"/>
   </mergeCells>
   <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/0. document/2. 보고서/6차 보고서_마일스톤 상세.xlsx
+++ b/0. document/2. 보고서/6차 보고서_마일스톤 상세.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="21601"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1F58FB8A-DA9C-405A-A706-58E05D9AA554}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B81C72A4-BAE1-49A7-ABB6-4C06F10AF07C}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="490" windowWidth="19420" windowHeight="12420" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,386 +20,378 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="112" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="115" uniqueCount="88">
   <si>
     <t>팀</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
     <t>9조 CEO</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
     <t>팀원</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
     <t>박은영</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
     <t>주제</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
     <t>지도기반 채팅 커뮤니티</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
     <t>1주차</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
     <t>2주차</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
     <t>3주차</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
     <t>4주차</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
     <t>3.6 ~ 3.13</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
     <t>3.14 ~ 3.20</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
     <t>3.21 ~ 3.27</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
     <t>3.28 ~ 4.3</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
     <t>주별 진행사항 및 계획</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
     <t>5주차</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
     <t>6주차</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
     <t xml:space="preserve">7주차 </t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
     <t>8주차</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
     <t>4.4 ~ 4.10</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
     <t>4.11 ~ 4.17</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
     <t>4.18 ~ 4.24</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
     <t>4.25 ~ 5.1</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
     <t>9주차</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
     <t>10주차</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
     <t>11주차</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
     <t>12주차</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
     <t>5.2 ~ 5.8</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
     <t>5.9 ~ 5. 15</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
     <t>5.16 ~ 5.22</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
     <t>5.23 ~ 5.29</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
     <t>●</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
     <t>요구사항 분석,설계</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
     <t>구현</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>테스트</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
     <t>유지보수</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
     <t>● 완료</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
     <t>내용</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
     <t>친구 삭제</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
     <t>샘플 Database 작성</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
     <t>샘플 Restful API 작성</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
     <t>샘플 요구사항 작성</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
     <t>샘플 프로토 타입 작성</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
     <t>node.js vue.js 플러그인 설치</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
     <t>레이아웃 header, footer leftMenu, rightMenu</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
     <t>로그인</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
     <t>구글맵 추가</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
     <t>회원가입</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
     <t>구글 맵 위치 검색</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
     <t xml:space="preserve">회원가입 유효성 검사 </t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
     <t xml:space="preserve">친구, 그룹 목록 </t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
     <t xml:space="preserve">친구 즐겨찾기 </t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
     <t>친구 위치 정보 조회</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
     <t>친구 정보 조회</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
     <t>내 프로필 조회</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
     <t>내 위치 조회</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
     <t>내 정보 수정</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
     <t>그룹 만들기</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
     <t>요구사항 Restful API 정제</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
     <t>코드 수정/유지보수</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
     <t>마일스톤 계획</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
     <t xml:space="preserve">작성일 </t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
     <t>현재 진행상황</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
     <t>추후 계획</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
     <t>사용자 검색</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
     <t>친구 요청 수락/거절</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
     <t>대기친구 &gt; 요청 온 친구 (수락/거절)</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
     <t>대기친구 &gt; 요청 한 친구 (취소)</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
     <t>대기그룹 &gt; 요청 온 그룹 (수락/거절)</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
     <t>대기친구 &gt; 요청 한 그룹 (취소)</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
     <t>그룹 push 조회</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
     <t>카테고리 push 조회</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>그룹 즐겨찾기</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
     <t>그룹 내 채팅 페이지</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
     <t>중간 보고서 작성</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
     <t xml:space="preserve">그룹 header, footer </t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
     <t>그룹 메뉴 - 카테고리</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
     <t>그룹메뉴 -채팅 참여자</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
     <t>전문가 미팅</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
     <t>그룹메뉴-필터</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
     <t>그룹 환경설정 - 매니저</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
     <t>그룹 환경설정 - 참여자</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
     <t>환경설정 - 로그아웃</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
     <t xml:space="preserve"> 지도상에 검색된 그룹 을 표시</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
     <t xml:space="preserve"> rightMenu: 지도상 내에 혹은 검색된 그룹리스트</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
     <t xml:space="preserve">그룹의 상세, 참여 요청 </t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>코드 유지보수</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>테스트</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>진행사항 점검 및 Ver1.5 계획</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
     <t>최종 보고서 작성</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
     <t>친구 추가/취소</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
     <t>채팅 socket.io 공부</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>유닛테스트</t>
+    <phoneticPr fontId="3" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="8" x14ac:knownFonts="1">
+  <fonts count="9" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="맑은 고딕"/>
       <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="맑은 고딕"/>
+      <family val="2"/>
+      <charset val="129"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -570,63 +562,66 @@
   </borders>
   <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="30">
+  <cellXfs count="31">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="31" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -1353,20 +1348,19 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:O68"/>
+  <dimension ref="A1:P68"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="L1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="M21" sqref="M21"/>
+      <selection activeCell="O21" sqref="O21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="17" x14ac:dyDescent="0.45"/>
   <cols>
     <col min="3" max="3" width="17.58203125" bestFit="1" customWidth="1"/>
-    <col min="4" max="15" width="40.58203125" customWidth="1"/>
-    <col min="17" max="17" width="40.58203125" customWidth="1"/>
+    <col min="4" max="17" width="40.58203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:15" x14ac:dyDescent="0.45">
+    <row r="1" spans="1:16" x14ac:dyDescent="0.45">
       <c r="B1" t="s">
         <v>0</v>
       </c>
@@ -1374,7 +1368,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="2" spans="1:15" x14ac:dyDescent="0.45">
+    <row r="2" spans="1:16" x14ac:dyDescent="0.45">
       <c r="B2" t="s">
         <v>2</v>
       </c>
@@ -1382,7 +1376,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="3" spans="1:15" ht="17.5" thickBot="1" x14ac:dyDescent="0.5">
+    <row r="3" spans="1:16" ht="17.5" thickBot="1" x14ac:dyDescent="0.5">
       <c r="B3" s="1" t="s">
         <v>4</v>
       </c>
@@ -1391,28 +1385,28 @@
       </c>
       <c r="D3" s="1"/>
     </row>
-    <row r="4" spans="1:15" ht="17.5" thickBot="1" x14ac:dyDescent="0.5">
+    <row r="4" spans="1:16" ht="17.5" thickBot="1" x14ac:dyDescent="0.5">
       <c r="B4" s="18" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="C4" s="19">
         <v>43565</v>
       </c>
     </row>
-    <row r="5" spans="1:15" ht="21.5" thickBot="1" x14ac:dyDescent="0.6">
+    <row r="5" spans="1:16" ht="21.5" thickBot="1" x14ac:dyDescent="0.6">
       <c r="A5" s="6" t="s">
         <v>14</v>
       </c>
       <c r="B5" s="7"/>
       <c r="C5" s="8"/>
       <c r="H5" t="s">
+        <v>61</v>
+      </c>
+      <c r="I5" t="s">
         <v>62</v>
       </c>
-      <c r="I5" t="s">
-        <v>63</v>
-      </c>
-    </row>
-    <row r="6" spans="1:15" s="4" customFormat="1" x14ac:dyDescent="0.45">
+    </row>
+    <row r="6" spans="1:16" s="4" customFormat="1" x14ac:dyDescent="0.45">
       <c r="D6" s="3" t="s">
         <v>6</v>
       </c>
@@ -1449,8 +1443,9 @@
       <c r="O6" s="3" t="s">
         <v>26</v>
       </c>
-    </row>
-    <row r="7" spans="1:15" s="4" customFormat="1" x14ac:dyDescent="0.45">
+      <c r="P6" s="30"/>
+    </row>
+    <row r="7" spans="1:16" s="4" customFormat="1" x14ac:dyDescent="0.45">
       <c r="D7" s="3" t="s">
         <v>10</v>
       </c>
@@ -1487,12 +1482,13 @@
       <c r="O7" s="3" t="s">
         <v>30</v>
       </c>
-    </row>
-    <row r="8" spans="1:15" x14ac:dyDescent="0.45">
-      <c r="A8" s="28" t="s">
+      <c r="P7" s="30"/>
+    </row>
+    <row r="8" spans="1:16" x14ac:dyDescent="0.45">
+      <c r="A8" s="27" t="s">
         <v>32</v>
       </c>
-      <c r="B8" s="29"/>
+      <c r="B8" s="28"/>
       <c r="D8" s="5" t="s">
         <v>31</v>
       </c>
@@ -1506,14 +1502,14 @@
         <v>31</v>
       </c>
       <c r="H8" s="15" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="9" spans="1:15" x14ac:dyDescent="0.45">
-      <c r="A9" s="28" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="9" spans="1:16" x14ac:dyDescent="0.45">
+      <c r="A9" s="27" t="s">
         <v>33</v>
       </c>
-      <c r="B9" s="29"/>
+      <c r="B9" s="28"/>
       <c r="D9" s="5"/>
       <c r="E9" s="5" t="s">
         <v>31</v>
@@ -1546,26 +1542,53 @@
         <v>31</v>
       </c>
     </row>
-    <row r="10" spans="1:15" x14ac:dyDescent="0.45">
-      <c r="A10" s="28" t="s">
+    <row r="10" spans="1:16" x14ac:dyDescent="0.45">
+      <c r="A10" s="27" t="s">
+        <v>87</v>
+      </c>
+      <c r="B10" s="28"/>
+      <c r="D10" s="5" t="s">
+        <v>31</v>
+      </c>
+      <c r="E10" s="5" t="s">
+        <v>31</v>
+      </c>
+      <c r="F10" s="5" t="s">
+        <v>31</v>
+      </c>
+      <c r="G10" s="5" t="s">
+        <v>31</v>
+      </c>
+      <c r="H10" s="5" t="s">
+        <v>31</v>
+      </c>
+      <c r="I10" s="5" t="s">
+        <v>31</v>
+      </c>
+      <c r="J10" s="5" t="s">
+        <v>31</v>
+      </c>
+      <c r="K10" s="5" t="s">
+        <v>31</v>
+      </c>
+      <c r="L10" s="5" t="s">
+        <v>31</v>
+      </c>
+      <c r="M10" s="5" t="s">
+        <v>31</v>
+      </c>
+      <c r="N10" s="5" t="s">
+        <v>31</v>
+      </c>
+      <c r="O10" s="5" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="11" spans="1:16" ht="17.5" thickBot="1" x14ac:dyDescent="0.5">
+      <c r="A11" s="25" t="s">
         <v>34</v>
       </c>
-      <c r="B10" s="29"/>
-      <c r="M10" s="5" t="s">
-        <v>31</v>
-      </c>
-      <c r="N10" s="5" t="s">
-        <v>31</v>
-      </c>
-      <c r="O10" s="5" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="11" spans="1:15" ht="17.5" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="A11" s="26" t="s">
-        <v>35</v>
-      </c>
-      <c r="B11" s="27"/>
+      <c r="B11" s="26"/>
       <c r="C11" s="13"/>
       <c r="D11" s="13"/>
       <c r="E11" s="13"/>
@@ -1578,236 +1601,223 @@
       <c r="J11" s="13"/>
       <c r="K11" s="13"/>
       <c r="L11" s="13"/>
-      <c r="M11" s="14" t="s">
-        <v>31</v>
-      </c>
-      <c r="N11" s="14" t="s">
-        <v>31</v>
-      </c>
+      <c r="M11" s="14"/>
+      <c r="N11" s="14"/>
       <c r="O11" s="14" t="s">
         <v>31</v>
       </c>
-    </row>
-    <row r="12" spans="1:15" x14ac:dyDescent="0.45">
-      <c r="A12" s="28" t="s">
-        <v>37</v>
-      </c>
-      <c r="B12" s="29"/>
+      <c r="P11" s="14"/>
+    </row>
+    <row r="12" spans="1:16" x14ac:dyDescent="0.45">
+      <c r="A12" s="27" t="s">
+        <v>36</v>
+      </c>
+      <c r="B12" s="28"/>
       <c r="D12" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="E12" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="F12" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="G12" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="H12" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="I12" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="J12" s="17" t="s">
+        <v>81</v>
+      </c>
+      <c r="K12" s="24" t="s">
         <v>83</v>
       </c>
-      <c r="K12" s="24" t="s">
-        <v>85</v>
-      </c>
       <c r="L12" t="s">
-        <v>91</v>
+        <v>86</v>
       </c>
       <c r="M12" t="s">
-        <v>80</v>
-      </c>
-      <c r="N12" s="21" t="s">
-        <v>86</v>
+        <v>73</v>
+      </c>
+      <c r="N12" t="s">
+        <v>71</v>
       </c>
       <c r="O12" s="20" t="s">
-        <v>89</v>
-      </c>
-    </row>
-    <row r="13" spans="1:15" x14ac:dyDescent="0.45">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="13" spans="1:16" x14ac:dyDescent="0.45">
       <c r="A13" s="11"/>
       <c r="B13" s="12"/>
       <c r="D13" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="E13" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="I13" s="22"/>
       <c r="J13" s="17" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="K13" s="24" t="s">
+        <v>72</v>
+      </c>
+      <c r="M13" t="s">
+        <v>75</v>
+      </c>
+      <c r="N13" t="s">
+        <v>78</v>
+      </c>
+      <c r="O13" t="s">
         <v>74</v>
       </c>
-      <c r="M13" s="17" t="s">
-        <v>81</v>
-      </c>
-      <c r="N13" s="21" t="s">
-        <v>87</v>
-      </c>
-    </row>
-    <row r="14" spans="1:15" x14ac:dyDescent="0.45">
+    </row>
+    <row r="14" spans="1:16" x14ac:dyDescent="0.45">
       <c r="A14" s="11"/>
       <c r="B14" s="12"/>
       <c r="D14" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="I14" s="22"/>
       <c r="K14" s="24" t="s">
-        <v>78</v>
-      </c>
-      <c r="M14" t="s">
-        <v>70</v>
-      </c>
-      <c r="N14" s="21" t="s">
-        <v>88</v>
-      </c>
-    </row>
-    <row r="15" spans="1:15" x14ac:dyDescent="0.45">
+        <v>76</v>
+      </c>
+      <c r="N14" s="17" t="s">
+        <v>79</v>
+      </c>
+      <c r="O14" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="15" spans="1:16" x14ac:dyDescent="0.45">
       <c r="A15" s="11"/>
       <c r="B15" s="12"/>
       <c r="D15" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="I15" s="22"/>
-      <c r="M15" t="s">
-        <v>71</v>
-      </c>
-    </row>
-    <row r="16" spans="1:15" x14ac:dyDescent="0.45">
+      <c r="O15" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="16" spans="1:16" x14ac:dyDescent="0.45">
       <c r="A16" s="11"/>
       <c r="B16" s="12"/>
       <c r="D16" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="I16" s="22"/>
-      <c r="M16" t="s">
-        <v>72</v>
-      </c>
-    </row>
-    <row r="17" spans="1:13" x14ac:dyDescent="0.45">
+      <c r="O16" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="17" spans="1:15" x14ac:dyDescent="0.45">
       <c r="A17" s="11"/>
       <c r="B17" s="12"/>
       <c r="I17" s="22"/>
-      <c r="M17" t="s">
-        <v>73</v>
-      </c>
-    </row>
-    <row r="18" spans="1:13" x14ac:dyDescent="0.45">
+      <c r="O17" s="21"/>
+    </row>
+    <row r="18" spans="1:15" x14ac:dyDescent="0.45">
       <c r="A18" s="11"/>
       <c r="B18" s="12"/>
       <c r="I18" s="22"/>
-      <c r="M18" t="s">
-        <v>75</v>
-      </c>
-    </row>
-    <row r="19" spans="1:13" x14ac:dyDescent="0.45">
+      <c r="O18" s="21"/>
+    </row>
+    <row r="19" spans="1:15" x14ac:dyDescent="0.45">
       <c r="A19" s="11"/>
       <c r="B19" s="12"/>
       <c r="I19" s="22"/>
-      <c r="M19" t="s">
-        <v>76</v>
-      </c>
-    </row>
-    <row r="20" spans="1:13" x14ac:dyDescent="0.45">
+    </row>
+    <row r="20" spans="1:15" x14ac:dyDescent="0.45">
       <c r="A20" s="11"/>
       <c r="B20" s="12"/>
       <c r="I20" s="22"/>
-      <c r="M20" t="s">
-        <v>77</v>
-      </c>
-    </row>
-    <row r="21" spans="1:13" x14ac:dyDescent="0.45">
+    </row>
+    <row r="21" spans="1:15" x14ac:dyDescent="0.45">
       <c r="A21" s="11"/>
       <c r="B21" s="12"/>
       <c r="I21" s="22"/>
       <c r="K21" s="23"/>
-      <c r="M21" t="s">
-        <v>79</v>
-      </c>
-    </row>
-    <row r="22" spans="1:13" x14ac:dyDescent="0.45">
+    </row>
+    <row r="22" spans="1:15" x14ac:dyDescent="0.45">
       <c r="A22" s="11"/>
       <c r="B22" s="12"/>
       <c r="I22" s="22"/>
     </row>
-    <row r="23" spans="1:13" x14ac:dyDescent="0.45">
+    <row r="23" spans="1:15" x14ac:dyDescent="0.45">
       <c r="A23" s="11"/>
       <c r="B23" s="12"/>
       <c r="F23" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="I23" t="s">
-        <v>90</v>
-      </c>
-    </row>
-    <row r="24" spans="1:13" x14ac:dyDescent="0.45">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="24" spans="1:15" x14ac:dyDescent="0.45">
       <c r="A24" s="11"/>
       <c r="B24" s="12"/>
       <c r="I24" t="s">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="25" spans="1:13" x14ac:dyDescent="0.45">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="25" spans="1:15" x14ac:dyDescent="0.45">
       <c r="A25" s="11"/>
       <c r="B25" s="12"/>
       <c r="I25" t="s">
-        <v>66</v>
-      </c>
-    </row>
-    <row r="26" spans="1:13" x14ac:dyDescent="0.45">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="26" spans="1:15" x14ac:dyDescent="0.45">
       <c r="A26" s="11"/>
       <c r="B26" s="12"/>
       <c r="I26" t="s">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="27" spans="1:13" x14ac:dyDescent="0.45">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="27" spans="1:15" x14ac:dyDescent="0.45">
       <c r="A27" s="11"/>
       <c r="B27" s="12"/>
       <c r="H27" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="I27" s="16" t="s">
-        <v>68</v>
-      </c>
-    </row>
-    <row r="28" spans="1:13" x14ac:dyDescent="0.45">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="28" spans="1:15" x14ac:dyDescent="0.45">
       <c r="A28" s="11"/>
       <c r="B28" s="12"/>
       <c r="H28" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="I28" s="16" t="s">
-        <v>69</v>
-      </c>
-    </row>
-    <row r="29" spans="1:13" x14ac:dyDescent="0.45">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="29" spans="1:15" x14ac:dyDescent="0.45">
       <c r="A29" s="11"/>
       <c r="B29" s="12"/>
       <c r="H29" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="I29" t="s">
-        <v>82</v>
-      </c>
-    </row>
-    <row r="30" spans="1:13" x14ac:dyDescent="0.45">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="30" spans="1:15" x14ac:dyDescent="0.45">
       <c r="A30" s="11"/>
       <c r="B30" s="12"/>
     </row>
-    <row r="31" spans="1:13" x14ac:dyDescent="0.45">
+    <row r="31" spans="1:15" x14ac:dyDescent="0.45">
       <c r="A31" s="11"/>
       <c r="B31" s="12"/>
     </row>
-    <row r="32" spans="1:13" x14ac:dyDescent="0.45">
+    <row r="32" spans="1:15" x14ac:dyDescent="0.45">
       <c r="A32" s="11"/>
       <c r="B32" s="12"/>
     </row>
@@ -1815,28 +1825,28 @@
       <c r="A33" s="11"/>
       <c r="B33" s="12"/>
       <c r="G33" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
     </row>
     <row r="34" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A34" s="11"/>
       <c r="B34" s="12"/>
       <c r="G34" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
     </row>
     <row r="35" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A35" s="11"/>
       <c r="B35" s="12"/>
       <c r="G35" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
     </row>
     <row r="36" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A36" s="11"/>
       <c r="B36" s="12"/>
       <c r="G36" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
     </row>
     <row r="37" spans="1:7" x14ac:dyDescent="0.45">
@@ -1852,60 +1862,60 @@
       <c r="B39" s="10"/>
     </row>
     <row r="42" spans="1:7" x14ac:dyDescent="0.45">
-      <c r="A42" s="25"/>
-      <c r="B42" s="25"/>
+      <c r="A42" s="29"/>
+      <c r="B42" s="29"/>
     </row>
     <row r="43" spans="1:7" x14ac:dyDescent="0.45">
-      <c r="A43" s="25"/>
-      <c r="B43" s="25"/>
+      <c r="A43" s="29"/>
+      <c r="B43" s="29"/>
     </row>
     <row r="44" spans="1:7" x14ac:dyDescent="0.45">
-      <c r="A44" s="25"/>
-      <c r="B44" s="25"/>
+      <c r="A44" s="29"/>
+      <c r="B44" s="29"/>
     </row>
     <row r="45" spans="1:7" x14ac:dyDescent="0.45">
-      <c r="A45" s="25"/>
-      <c r="B45" s="25"/>
+      <c r="A45" s="29"/>
+      <c r="B45" s="29"/>
       <c r="G45" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="46" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="A46" s="29"/>
+      <c r="B46" s="29"/>
+      <c r="F46" t="s">
+        <v>47</v>
+      </c>
+      <c r="G46" t="s">
         <v>54</v>
       </c>
     </row>
-    <row r="46" spans="1:7" x14ac:dyDescent="0.45">
-      <c r="A46" s="25"/>
-      <c r="B46" s="25"/>
-      <c r="F46" t="s">
-        <v>48</v>
-      </c>
-      <c r="G46" t="s">
+    <row r="50" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="A50" s="29"/>
+      <c r="B50" s="29"/>
+    </row>
+    <row r="51" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="A51" s="29"/>
+      <c r="B51" s="29"/>
+    </row>
+    <row r="52" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="A52" s="29"/>
+      <c r="B52" s="29"/>
+    </row>
+    <row r="53" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="A53" s="29"/>
+      <c r="B53" s="29"/>
+    </row>
+    <row r="54" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="A54" s="29"/>
+      <c r="B54" s="29"/>
+      <c r="G54" t="s">
         <v>55</v>
-      </c>
-    </row>
-    <row r="50" spans="1:7" x14ac:dyDescent="0.45">
-      <c r="A50" s="25"/>
-      <c r="B50" s="25"/>
-    </row>
-    <row r="51" spans="1:7" x14ac:dyDescent="0.45">
-      <c r="A51" s="25"/>
-      <c r="B51" s="25"/>
-    </row>
-    <row r="52" spans="1:7" x14ac:dyDescent="0.45">
-      <c r="A52" s="25"/>
-      <c r="B52" s="25"/>
-    </row>
-    <row r="53" spans="1:7" x14ac:dyDescent="0.45">
-      <c r="A53" s="25"/>
-      <c r="B53" s="25"/>
-    </row>
-    <row r="54" spans="1:7" x14ac:dyDescent="0.45">
-      <c r="A54" s="25"/>
-      <c r="B54" s="25"/>
-      <c r="G54" t="s">
-        <v>56</v>
       </c>
     </row>
     <row r="61" spans="1:7" x14ac:dyDescent="0.45">
       <c r="F61" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
     </row>
     <row r="67" spans="4:4" ht="21.5" thickBot="1" x14ac:dyDescent="0.6">
@@ -1914,6 +1924,12 @@
     <row r="68" spans="4:4" ht="17.5" thickTop="1" x14ac:dyDescent="0.45"/>
   </sheetData>
   <mergeCells count="15">
+    <mergeCell ref="A54:B54"/>
+    <mergeCell ref="A52:B52"/>
+    <mergeCell ref="A50:B50"/>
+    <mergeCell ref="A53:B53"/>
+    <mergeCell ref="A45:B45"/>
+    <mergeCell ref="A51:B51"/>
     <mergeCell ref="A11:B11"/>
     <mergeCell ref="A12:B12"/>
     <mergeCell ref="A46:B46"/>
@@ -1923,14 +1939,8 @@
     <mergeCell ref="A43:B43"/>
     <mergeCell ref="A10:B10"/>
     <mergeCell ref="A44:B44"/>
-    <mergeCell ref="A54:B54"/>
-    <mergeCell ref="A52:B52"/>
-    <mergeCell ref="A50:B50"/>
-    <mergeCell ref="A53:B53"/>
-    <mergeCell ref="A45:B45"/>
-    <mergeCell ref="A51:B51"/>
   </mergeCells>
-  <phoneticPr fontId="2" type="noConversion"/>
+  <phoneticPr fontId="3" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
   <drawing r:id="rId2"/>

--- a/0. document/2. 보고서/6차 보고서_마일스톤 상세.xlsx
+++ b/0. document/2. 보고서/6차 보고서_마일스톤 상세.xlsx
@@ -3,9 +3,9 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="21601"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B81C72A4-BAE1-49A7-ABB6-4C06F10AF07C}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{470DC542-E3C4-4591-9C1F-D16C782F381E}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="490" windowWidth="19420" windowHeight="12420" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="1140" yWindow="1740" windowWidth="14400" windowHeight="8810" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="115" uniqueCount="88">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="114" uniqueCount="87">
   <si>
     <t>팀</t>
     <phoneticPr fontId="3" type="noConversion"/>
@@ -295,10 +295,6 @@
   </si>
   <si>
     <t>대기친구 &gt; 요청 한 그룹 (취소)</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>그룹 push 조회</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
@@ -378,7 +374,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="9" x14ac:knownFonts="1">
+  <fonts count="9">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -608,6 +604,10 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -618,10 +618,6 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -1350,17 +1346,17 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:P68"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="L1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="O21" sqref="O21"/>
+    <sheetView tabSelected="1" topLeftCell="N1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="O15" sqref="O15"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="17" x14ac:dyDescent="0.45"/>
+  <sheetFormatPr defaultRowHeight="17"/>
   <cols>
     <col min="3" max="3" width="17.58203125" bestFit="1" customWidth="1"/>
     <col min="4" max="17" width="40.58203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:16" x14ac:dyDescent="0.45">
+    <row r="1" spans="1:16">
       <c r="B1" t="s">
         <v>0</v>
       </c>
@@ -1368,7 +1364,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="2" spans="1:16" x14ac:dyDescent="0.45">
+    <row r="2" spans="1:16">
       <c r="B2" t="s">
         <v>2</v>
       </c>
@@ -1376,7 +1372,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="3" spans="1:16" ht="17.5" thickBot="1" x14ac:dyDescent="0.5">
+    <row r="3" spans="1:16" ht="17.5" thickBot="1">
       <c r="B3" s="1" t="s">
         <v>4</v>
       </c>
@@ -1385,7 +1381,7 @@
       </c>
       <c r="D3" s="1"/>
     </row>
-    <row r="4" spans="1:16" ht="17.5" thickBot="1" x14ac:dyDescent="0.5">
+    <row r="4" spans="1:16" ht="17.5" thickBot="1">
       <c r="B4" s="18" t="s">
         <v>60</v>
       </c>
@@ -1393,7 +1389,7 @@
         <v>43565</v>
       </c>
     </row>
-    <row r="5" spans="1:16" ht="21.5" thickBot="1" x14ac:dyDescent="0.6">
+    <row r="5" spans="1:16" ht="21.5" thickBot="1">
       <c r="A5" s="6" t="s">
         <v>14</v>
       </c>
@@ -1406,7 +1402,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="6" spans="1:16" s="4" customFormat="1" x14ac:dyDescent="0.45">
+    <row r="6" spans="1:16" s="4" customFormat="1">
       <c r="D6" s="3" t="s">
         <v>6</v>
       </c>
@@ -1443,9 +1439,9 @@
       <c r="O6" s="3" t="s">
         <v>26</v>
       </c>
-      <c r="P6" s="30"/>
-    </row>
-    <row r="7" spans="1:16" s="4" customFormat="1" x14ac:dyDescent="0.45">
+      <c r="P6" s="25"/>
+    </row>
+    <row r="7" spans="1:16" s="4" customFormat="1">
       <c r="D7" s="3" t="s">
         <v>10</v>
       </c>
@@ -1482,13 +1478,13 @@
       <c r="O7" s="3" t="s">
         <v>30</v>
       </c>
-      <c r="P7" s="30"/>
-    </row>
-    <row r="8" spans="1:16" x14ac:dyDescent="0.45">
-      <c r="A8" s="27" t="s">
+      <c r="P7" s="25"/>
+    </row>
+    <row r="8" spans="1:16">
+      <c r="A8" s="29" t="s">
         <v>32</v>
       </c>
-      <c r="B8" s="28"/>
+      <c r="B8" s="30"/>
       <c r="D8" s="5" t="s">
         <v>31</v>
       </c>
@@ -1505,11 +1501,11 @@
         <v>35</v>
       </c>
     </row>
-    <row r="9" spans="1:16" x14ac:dyDescent="0.45">
-      <c r="A9" s="27" t="s">
+    <row r="9" spans="1:16">
+      <c r="A9" s="29" t="s">
         <v>33</v>
       </c>
-      <c r="B9" s="28"/>
+      <c r="B9" s="30"/>
       <c r="D9" s="5"/>
       <c r="E9" s="5" t="s">
         <v>31</v>
@@ -1542,11 +1538,11 @@
         <v>31</v>
       </c>
     </row>
-    <row r="10" spans="1:16" x14ac:dyDescent="0.45">
-      <c r="A10" s="27" t="s">
-        <v>87</v>
-      </c>
-      <c r="B10" s="28"/>
+    <row r="10" spans="1:16">
+      <c r="A10" s="29" t="s">
+        <v>86</v>
+      </c>
+      <c r="B10" s="30"/>
       <c r="D10" s="5" t="s">
         <v>31</v>
       </c>
@@ -1584,11 +1580,11 @@
         <v>31</v>
       </c>
     </row>
-    <row r="11" spans="1:16" ht="17.5" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="A11" s="25" t="s">
+    <row r="11" spans="1:16" ht="17.5" thickBot="1">
+      <c r="A11" s="27" t="s">
         <v>34</v>
       </c>
-      <c r="B11" s="26"/>
+      <c r="B11" s="28"/>
       <c r="C11" s="13"/>
       <c r="D11" s="13"/>
       <c r="E11" s="13"/>
@@ -1608,11 +1604,11 @@
       </c>
       <c r="P11" s="14"/>
     </row>
-    <row r="12" spans="1:16" x14ac:dyDescent="0.45">
-      <c r="A12" s="27" t="s">
+    <row r="12" spans="1:16">
+      <c r="A12" s="29" t="s">
         <v>36</v>
       </c>
-      <c r="B12" s="28"/>
+      <c r="B12" s="30"/>
       <c r="D12" t="s">
         <v>41</v>
       </c>
@@ -1632,25 +1628,25 @@
         <v>63</v>
       </c>
       <c r="J12" s="17" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="K12" s="24" t="s">
+        <v>82</v>
+      </c>
+      <c r="L12" t="s">
+        <v>85</v>
+      </c>
+      <c r="M12" t="s">
+        <v>72</v>
+      </c>
+      <c r="N12" t="s">
+        <v>70</v>
+      </c>
+      <c r="O12" s="20" t="s">
         <v>83</v>
       </c>
-      <c r="L12" t="s">
-        <v>86</v>
-      </c>
-      <c r="M12" t="s">
-        <v>73</v>
-      </c>
-      <c r="N12" t="s">
-        <v>71</v>
-      </c>
-      <c r="O12" s="20" t="s">
-        <v>84</v>
-      </c>
-    </row>
-    <row r="13" spans="1:16" x14ac:dyDescent="0.45">
+    </row>
+    <row r="13" spans="1:16">
       <c r="A13" s="11"/>
       <c r="B13" s="12"/>
       <c r="D13" t="s">
@@ -1661,22 +1657,22 @@
       </c>
       <c r="I13" s="22"/>
       <c r="J13" s="17" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="K13" s="24" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="M13" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="N13" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="O13" t="s">
-        <v>74</v>
-      </c>
-    </row>
-    <row r="14" spans="1:16" x14ac:dyDescent="0.45">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="14" spans="1:16">
       <c r="A14" s="11"/>
       <c r="B14" s="12"/>
       <c r="D14" t="s">
@@ -1684,27 +1680,24 @@
       </c>
       <c r="I14" s="22"/>
       <c r="K14" s="24" t="s">
+        <v>75</v>
+      </c>
+      <c r="N14" s="17" t="s">
+        <v>78</v>
+      </c>
+      <c r="O14" t="s">
         <v>76</v>
       </c>
-      <c r="N14" s="17" t="s">
-        <v>79</v>
-      </c>
-      <c r="O14" t="s">
-        <v>77</v>
-      </c>
-    </row>
-    <row r="15" spans="1:16" x14ac:dyDescent="0.45">
+    </row>
+    <row r="15" spans="1:16">
       <c r="A15" s="11"/>
       <c r="B15" s="12"/>
       <c r="D15" t="s">
         <v>38</v>
       </c>
       <c r="I15" s="22"/>
-      <c r="O15" t="s">
-        <v>69</v>
-      </c>
-    </row>
-    <row r="16" spans="1:16" x14ac:dyDescent="0.45">
+    </row>
+    <row r="16" spans="1:16">
       <c r="A16" s="11"/>
       <c r="B16" s="12"/>
       <c r="D16" t="s">
@@ -1712,74 +1705,74 @@
       </c>
       <c r="I16" s="22"/>
       <c r="O16" t="s">
-        <v>70</v>
-      </c>
-    </row>
-    <row r="17" spans="1:15" x14ac:dyDescent="0.45">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="17" spans="1:15">
       <c r="A17" s="11"/>
       <c r="B17" s="12"/>
       <c r="I17" s="22"/>
       <c r="O17" s="21"/>
     </row>
-    <row r="18" spans="1:15" x14ac:dyDescent="0.45">
+    <row r="18" spans="1:15">
       <c r="A18" s="11"/>
       <c r="B18" s="12"/>
       <c r="I18" s="22"/>
       <c r="O18" s="21"/>
     </row>
-    <row r="19" spans="1:15" x14ac:dyDescent="0.45">
+    <row r="19" spans="1:15">
       <c r="A19" s="11"/>
       <c r="B19" s="12"/>
       <c r="I19" s="22"/>
     </row>
-    <row r="20" spans="1:15" x14ac:dyDescent="0.45">
+    <row r="20" spans="1:15">
       <c r="A20" s="11"/>
       <c r="B20" s="12"/>
       <c r="I20" s="22"/>
     </row>
-    <row r="21" spans="1:15" x14ac:dyDescent="0.45">
+    <row r="21" spans="1:15">
       <c r="A21" s="11"/>
       <c r="B21" s="12"/>
       <c r="I21" s="22"/>
       <c r="K21" s="23"/>
     </row>
-    <row r="22" spans="1:15" x14ac:dyDescent="0.45">
+    <row r="22" spans="1:15">
       <c r="A22" s="11"/>
       <c r="B22" s="12"/>
       <c r="I22" s="22"/>
     </row>
-    <row r="23" spans="1:15" x14ac:dyDescent="0.45">
+    <row r="23" spans="1:15">
       <c r="A23" s="11"/>
       <c r="B23" s="12"/>
       <c r="F23" t="s">
         <v>46</v>
       </c>
       <c r="I23" t="s">
-        <v>85</v>
-      </c>
-    </row>
-    <row r="24" spans="1:15" x14ac:dyDescent="0.45">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="24" spans="1:15">
       <c r="A24" s="11"/>
       <c r="B24" s="12"/>
       <c r="I24" t="s">
         <v>64</v>
       </c>
     </row>
-    <row r="25" spans="1:15" x14ac:dyDescent="0.45">
+    <row r="25" spans="1:15">
       <c r="A25" s="11"/>
       <c r="B25" s="12"/>
       <c r="I25" t="s">
         <v>65</v>
       </c>
     </row>
-    <row r="26" spans="1:15" x14ac:dyDescent="0.45">
+    <row r="26" spans="1:15">
       <c r="A26" s="11"/>
       <c r="B26" s="12"/>
       <c r="I26" t="s">
         <v>66</v>
       </c>
     </row>
-    <row r="27" spans="1:15" x14ac:dyDescent="0.45">
+    <row r="27" spans="1:15">
       <c r="A27" s="11"/>
       <c r="B27" s="12"/>
       <c r="H27" t="s">
@@ -1789,7 +1782,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="28" spans="1:15" x14ac:dyDescent="0.45">
+    <row r="28" spans="1:15">
       <c r="A28" s="11"/>
       <c r="B28" s="12"/>
       <c r="H28" t="s">
@@ -1799,90 +1792,90 @@
         <v>68</v>
       </c>
     </row>
-    <row r="29" spans="1:15" x14ac:dyDescent="0.45">
+    <row r="29" spans="1:15">
       <c r="A29" s="11"/>
       <c r="B29" s="12"/>
       <c r="H29" t="s">
         <v>59</v>
       </c>
       <c r="I29" t="s">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="30" spans="1:15" x14ac:dyDescent="0.45">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="30" spans="1:15">
       <c r="A30" s="11"/>
       <c r="B30" s="12"/>
     </row>
-    <row r="31" spans="1:15" x14ac:dyDescent="0.45">
+    <row r="31" spans="1:15">
       <c r="A31" s="11"/>
       <c r="B31" s="12"/>
     </row>
-    <row r="32" spans="1:15" x14ac:dyDescent="0.45">
+    <row r="32" spans="1:15">
       <c r="A32" s="11"/>
       <c r="B32" s="12"/>
     </row>
-    <row r="33" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="33" spans="1:7">
       <c r="A33" s="11"/>
       <c r="B33" s="12"/>
       <c r="G33" t="s">
         <v>37</v>
       </c>
     </row>
-    <row r="34" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="34" spans="1:7">
       <c r="A34" s="11"/>
       <c r="B34" s="12"/>
       <c r="G34" t="s">
         <v>50</v>
       </c>
     </row>
-    <row r="35" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="35" spans="1:7">
       <c r="A35" s="11"/>
       <c r="B35" s="12"/>
       <c r="G35" t="s">
         <v>51</v>
       </c>
     </row>
-    <row r="36" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="36" spans="1:7">
       <c r="A36" s="11"/>
       <c r="B36" s="12"/>
       <c r="G36" t="s">
         <v>52</v>
       </c>
     </row>
-    <row r="37" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="37" spans="1:7">
       <c r="A37" s="11"/>
       <c r="B37" s="12"/>
     </row>
-    <row r="38" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="38" spans="1:7">
       <c r="A38" s="11"/>
       <c r="B38" s="12"/>
     </row>
-    <row r="39" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="39" spans="1:7">
       <c r="A39" s="9"/>
       <c r="B39" s="10"/>
     </row>
-    <row r="42" spans="1:7" x14ac:dyDescent="0.45">
-      <c r="A42" s="29"/>
-      <c r="B42" s="29"/>
-    </row>
-    <row r="43" spans="1:7" x14ac:dyDescent="0.45">
-      <c r="A43" s="29"/>
-      <c r="B43" s="29"/>
-    </row>
-    <row r="44" spans="1:7" x14ac:dyDescent="0.45">
-      <c r="A44" s="29"/>
-      <c r="B44" s="29"/>
-    </row>
-    <row r="45" spans="1:7" x14ac:dyDescent="0.45">
-      <c r="A45" s="29"/>
-      <c r="B45" s="29"/>
+    <row r="42" spans="1:7">
+      <c r="A42" s="26"/>
+      <c r="B42" s="26"/>
+    </row>
+    <row r="43" spans="1:7">
+      <c r="A43" s="26"/>
+      <c r="B43" s="26"/>
+    </row>
+    <row r="44" spans="1:7">
+      <c r="A44" s="26"/>
+      <c r="B44" s="26"/>
+    </row>
+    <row r="45" spans="1:7">
+      <c r="A45" s="26"/>
+      <c r="B45" s="26"/>
       <c r="G45" t="s">
         <v>53</v>
       </c>
     </row>
-    <row r="46" spans="1:7" x14ac:dyDescent="0.45">
-      <c r="A46" s="29"/>
-      <c r="B46" s="29"/>
+    <row r="46" spans="1:7">
+      <c r="A46" s="26"/>
+      <c r="B46" s="26"/>
       <c r="F46" t="s">
         <v>47</v>
       </c>
@@ -1890,46 +1883,40 @@
         <v>54</v>
       </c>
     </row>
-    <row r="50" spans="1:7" x14ac:dyDescent="0.45">
-      <c r="A50" s="29"/>
-      <c r="B50" s="29"/>
-    </row>
-    <row r="51" spans="1:7" x14ac:dyDescent="0.45">
-      <c r="A51" s="29"/>
-      <c r="B51" s="29"/>
-    </row>
-    <row r="52" spans="1:7" x14ac:dyDescent="0.45">
-      <c r="A52" s="29"/>
-      <c r="B52" s="29"/>
-    </row>
-    <row r="53" spans="1:7" x14ac:dyDescent="0.45">
-      <c r="A53" s="29"/>
-      <c r="B53" s="29"/>
-    </row>
-    <row r="54" spans="1:7" x14ac:dyDescent="0.45">
-      <c r="A54" s="29"/>
-      <c r="B54" s="29"/>
+    <row r="50" spans="1:7">
+      <c r="A50" s="26"/>
+      <c r="B50" s="26"/>
+    </row>
+    <row r="51" spans="1:7">
+      <c r="A51" s="26"/>
+      <c r="B51" s="26"/>
+    </row>
+    <row r="52" spans="1:7">
+      <c r="A52" s="26"/>
+      <c r="B52" s="26"/>
+    </row>
+    <row r="53" spans="1:7">
+      <c r="A53" s="26"/>
+      <c r="B53" s="26"/>
+    </row>
+    <row r="54" spans="1:7">
+      <c r="A54" s="26"/>
+      <c r="B54" s="26"/>
       <c r="G54" t="s">
         <v>55</v>
       </c>
     </row>
-    <row r="61" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="61" spans="1:7">
       <c r="F61" t="s">
         <v>48</v>
       </c>
     </row>
-    <row r="67" spans="4:4" ht="21.5" thickBot="1" x14ac:dyDescent="0.6">
+    <row r="67" spans="4:4" ht="21.5" thickBot="1">
       <c r="D67" s="2"/>
     </row>
-    <row r="68" spans="4:4" ht="17.5" thickTop="1" x14ac:dyDescent="0.45"/>
+    <row r="68" spans="4:4" ht="17.5" thickTop="1"/>
   </sheetData>
   <mergeCells count="15">
-    <mergeCell ref="A54:B54"/>
-    <mergeCell ref="A52:B52"/>
-    <mergeCell ref="A50:B50"/>
-    <mergeCell ref="A53:B53"/>
-    <mergeCell ref="A45:B45"/>
-    <mergeCell ref="A51:B51"/>
     <mergeCell ref="A11:B11"/>
     <mergeCell ref="A12:B12"/>
     <mergeCell ref="A46:B46"/>
@@ -1939,6 +1926,12 @@
     <mergeCell ref="A43:B43"/>
     <mergeCell ref="A10:B10"/>
     <mergeCell ref="A44:B44"/>
+    <mergeCell ref="A54:B54"/>
+    <mergeCell ref="A52:B52"/>
+    <mergeCell ref="A50:B50"/>
+    <mergeCell ref="A53:B53"/>
+    <mergeCell ref="A45:B45"/>
+    <mergeCell ref="A51:B51"/>
   </mergeCells>
   <phoneticPr fontId="3" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
